--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['10', '39']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -497,6 +500,9 @@
   </si>
   <si>
     <t>['19', '27']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2">
         <v>0.5600000000000001</v>
@@ -1323,7 +1329,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4">
         <v>1.56</v>
@@ -1816,7 +1822,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2022,7 +2028,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ6">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2147,7 +2153,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2353,7 +2359,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2559,7 +2565,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2637,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ9">
         <v>1.7</v>
@@ -2765,7 +2771,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2971,7 +2977,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3052,7 +3058,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3177,7 +3183,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3258,7 +3264,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3383,7 +3389,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3461,7 +3467,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
         <v>1.56</v>
@@ -3589,7 +3595,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3667,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3795,7 +3801,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4082,7 +4088,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4288,7 +4294,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ17">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4413,7 +4419,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4491,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4619,7 +4625,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4825,7 +4831,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4906,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5031,7 +5037,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5109,10 +5115,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5237,7 +5243,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5649,7 +5655,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5727,7 +5733,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ24">
         <v>1.7</v>
@@ -6061,7 +6067,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6139,10 +6145,10 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6348,7 +6354,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6473,7 +6479,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6679,7 +6685,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6963,7 +6969,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ30">
         <v>0.5600000000000001</v>
@@ -7297,7 +7303,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7375,10 +7381,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7503,7 +7509,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7709,7 +7715,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7915,7 +7921,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -7996,7 +8002,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ35">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8121,7 +8127,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8199,7 +8205,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ36">
         <v>1.56</v>
@@ -8327,7 +8333,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8405,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ37">
         <v>1.3</v>
@@ -8945,7 +8951,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9023,10 +9029,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9151,7 +9157,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9357,7 +9363,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9438,7 +9444,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9563,7 +9569,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9769,7 +9775,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9847,7 +9853,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44">
         <v>1.56</v>
@@ -10056,7 +10062,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10181,7 +10187,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10262,7 +10268,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ46">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10387,7 +10393,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10465,7 +10471,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10799,7 +10805,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11005,7 +11011,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11086,7 +11092,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11211,7 +11217,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11289,7 +11295,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ51">
         <v>1.7</v>
@@ -11495,7 +11501,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52">
         <v>1.1</v>
@@ -11623,7 +11629,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11704,7 +11710,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -11829,7 +11835,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -11907,7 +11913,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ54">
         <v>1.56</v>
@@ -12035,7 +12041,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12241,7 +12247,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12447,7 +12453,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12528,7 +12534,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12653,7 +12659,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12734,7 +12740,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ58">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -12937,7 +12943,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13016,6 +13022,418 @@
       </c>
       <c r="BP59">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7329996</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45378.79166666666</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q60">
+        <v>3.5</v>
+      </c>
+      <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
+        <v>3.25</v>
+      </c>
+      <c r="T60">
+        <v>1.42</v>
+      </c>
+      <c r="U60">
+        <v>2.78</v>
+      </c>
+      <c r="V60">
+        <v>3.15</v>
+      </c>
+      <c r="W60">
+        <v>1.35</v>
+      </c>
+      <c r="X60">
+        <v>8</v>
+      </c>
+      <c r="Y60">
+        <v>1.06</v>
+      </c>
+      <c r="Z60">
+        <v>2.63</v>
+      </c>
+      <c r="AA60">
+        <v>3.2</v>
+      </c>
+      <c r="AB60">
+        <v>2.45</v>
+      </c>
+      <c r="AC60">
+        <v>1.03</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.35</v>
+      </c>
+      <c r="AF60">
+        <v>3.14</v>
+      </c>
+      <c r="AG60">
+        <v>2.15</v>
+      </c>
+      <c r="AH60">
+        <v>1.67</v>
+      </c>
+      <c r="AI60">
+        <v>1.83</v>
+      </c>
+      <c r="AJ60">
+        <v>1.83</v>
+      </c>
+      <c r="AK60">
+        <v>1.51</v>
+      </c>
+      <c r="AL60">
+        <v>1.3</v>
+      </c>
+      <c r="AM60">
+        <v>1.38</v>
+      </c>
+      <c r="AN60">
+        <v>1.2</v>
+      </c>
+      <c r="AO60">
+        <v>1.4</v>
+      </c>
+      <c r="AP60">
+        <v>1.18</v>
+      </c>
+      <c r="AQ60">
+        <v>1.36</v>
+      </c>
+      <c r="AR60">
+        <v>1.2</v>
+      </c>
+      <c r="AS60">
+        <v>1.36</v>
+      </c>
+      <c r="AT60">
+        <v>2.56</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>2</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>8</v>
+      </c>
+      <c r="AZ60">
+        <v>11</v>
+      </c>
+      <c r="BA60">
+        <v>7</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>10</v>
+      </c>
+      <c r="BD60">
+        <v>2.11</v>
+      </c>
+      <c r="BE60">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF60">
+        <v>1.89</v>
+      </c>
+      <c r="BG60">
+        <v>1.23</v>
+      </c>
+      <c r="BH60">
+        <v>3.7</v>
+      </c>
+      <c r="BI60">
+        <v>1.43</v>
+      </c>
+      <c r="BJ60">
+        <v>2.65</v>
+      </c>
+      <c r="BK60">
+        <v>2.38</v>
+      </c>
+      <c r="BL60">
+        <v>2.05</v>
+      </c>
+      <c r="BM60">
+        <v>2.18</v>
+      </c>
+      <c r="BN60">
+        <v>1.66</v>
+      </c>
+      <c r="BO60">
+        <v>2.7</v>
+      </c>
+      <c r="BP60">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7330000</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45378.89583333334</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s">
+        <v>72</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P61" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q61">
+        <v>3.6</v>
+      </c>
+      <c r="R61">
+        <v>2.2</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <v>1.41</v>
+      </c>
+      <c r="U61">
+        <v>2.77</v>
+      </c>
+      <c r="V61">
+        <v>2.9</v>
+      </c>
+      <c r="W61">
+        <v>1.38</v>
+      </c>
+      <c r="X61">
+        <v>7.4</v>
+      </c>
+      <c r="Y61">
+        <v>1.07</v>
+      </c>
+      <c r="Z61">
+        <v>3</v>
+      </c>
+      <c r="AA61">
+        <v>3.25</v>
+      </c>
+      <c r="AB61">
+        <v>2.2</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE61">
+        <v>1.29</v>
+      </c>
+      <c r="AF61">
+        <v>3.14</v>
+      </c>
+      <c r="AG61">
+        <v>1.95</v>
+      </c>
+      <c r="AH61">
+        <v>1.85</v>
+      </c>
+      <c r="AI61">
+        <v>1.73</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>1.77</v>
+      </c>
+      <c r="AL61">
+        <v>1.27</v>
+      </c>
+      <c r="AM61">
+        <v>1.24</v>
+      </c>
+      <c r="AN61">
+        <v>0.7</v>
+      </c>
+      <c r="AO61">
+        <v>1.5</v>
+      </c>
+      <c r="AP61">
+        <v>0.64</v>
+      </c>
+      <c r="AQ61">
+        <v>1.64</v>
+      </c>
+      <c r="AR61">
+        <v>1.17</v>
+      </c>
+      <c r="AS61">
+        <v>1.5</v>
+      </c>
+      <c r="AT61">
+        <v>2.67</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>5</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>7</v>
+      </c>
+      <c r="BD61">
+        <v>2.44</v>
+      </c>
+      <c r="BE61">
+        <v>8.9</v>
+      </c>
+      <c r="BF61">
+        <v>1.68</v>
+      </c>
+      <c r="BG61">
+        <v>1.19</v>
+      </c>
+      <c r="BH61">
+        <v>4.2</v>
+      </c>
+      <c r="BI61">
+        <v>1.33</v>
+      </c>
+      <c r="BJ61">
+        <v>2.93</v>
+      </c>
+      <c r="BK61">
+        <v>2.1</v>
+      </c>
+      <c r="BL61">
+        <v>2.2</v>
+      </c>
+      <c r="BM61">
+        <v>2.03</v>
+      </c>
+      <c r="BN61">
+        <v>1.77</v>
+      </c>
+      <c r="BO61">
+        <v>2.6</v>
+      </c>
+      <c r="BP61">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -864,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1207,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ2">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1329,7 +1332,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1407,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2025,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ6">
         <v>0.64</v>
@@ -2153,7 +2156,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2234,7 +2237,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ7">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2359,7 +2362,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2437,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>1.3</v>
@@ -2565,7 +2568,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2646,7 +2649,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2771,7 +2774,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2977,7 +2980,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3055,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11">
         <v>1.64</v>
@@ -3183,7 +3186,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3389,7 +3392,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3470,7 +3473,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ13">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3595,7 +3598,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3801,7 +3804,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3879,10 +3882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4419,7 +4422,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4500,7 +4503,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4625,7 +4628,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4703,7 +4706,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
         <v>1.1</v>
@@ -4831,7 +4834,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5037,7 +5040,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5243,7 +5246,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5324,7 +5327,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ22">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5527,7 +5530,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23">
         <v>1.56</v>
@@ -5655,7 +5658,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5736,7 +5739,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ24">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6067,7 +6070,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6479,7 +6482,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6557,7 +6560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28">
         <v>1.3</v>
@@ -6685,7 +6688,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6763,10 +6766,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ29">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -6972,7 +6975,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ30">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7303,7 +7306,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7509,7 +7512,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7587,10 +7590,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
+        <v>1.64</v>
+      </c>
+      <c r="AQ33">
         <v>1.7</v>
-      </c>
-      <c r="AQ33">
-        <v>1.56</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7715,7 +7718,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7796,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -7921,7 +7924,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -7999,7 +8002,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
         <v>0.64</v>
@@ -8127,7 +8130,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8333,7 +8336,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8620,7 +8623,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8823,7 +8826,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8951,7 +8954,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9157,7 +9160,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9238,7 +9241,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ41">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9363,7 +9366,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9441,7 +9444,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ42">
         <v>1.18</v>
@@ -9569,7 +9572,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9650,7 +9653,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ43">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9775,7 +9778,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10059,7 +10062,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45">
         <v>1.64</v>
@@ -10187,7 +10190,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10393,7 +10396,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10680,7 +10683,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10805,7 +10808,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11011,7 +11014,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11089,7 +11092,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ50">
         <v>1.18</v>
@@ -11217,7 +11220,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11298,7 +11301,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ51">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11629,7 +11632,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11707,7 +11710,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
         <v>1.36</v>
@@ -11835,7 +11838,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -11916,7 +11919,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ54">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12041,7 +12044,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12119,7 +12122,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12247,7 +12250,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12328,7 +12331,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ56">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12453,7 +12456,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12531,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ57">
         <v>1.18</v>
@@ -12659,7 +12662,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13071,7 +13074,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13434,6 +13437,418 @@
       </c>
       <c r="BP61">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7329995</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45381.79166666666</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>126</v>
+      </c>
+      <c r="P62" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q62">
+        <v>1.95</v>
+      </c>
+      <c r="R62">
+        <v>2.3</v>
+      </c>
+      <c r="S62">
+        <v>7</v>
+      </c>
+      <c r="T62">
+        <v>1.39</v>
+      </c>
+      <c r="U62">
+        <v>2.85</v>
+      </c>
+      <c r="V62">
+        <v>2.85</v>
+      </c>
+      <c r="W62">
+        <v>1.39</v>
+      </c>
+      <c r="X62">
+        <v>7.2</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>1.4</v>
+      </c>
+      <c r="AA62">
+        <v>4.2</v>
+      </c>
+      <c r="AB62">
+        <v>7</v>
+      </c>
+      <c r="AC62">
+        <v>1.06</v>
+      </c>
+      <c r="AD62">
+        <v>8</v>
+      </c>
+      <c r="AE62">
+        <v>1.3</v>
+      </c>
+      <c r="AF62">
+        <v>3.4</v>
+      </c>
+      <c r="AG62">
+        <v>1.85</v>
+      </c>
+      <c r="AH62">
+        <v>1.95</v>
+      </c>
+      <c r="AI62">
+        <v>2.1</v>
+      </c>
+      <c r="AJ62">
+        <v>1.67</v>
+      </c>
+      <c r="AK62">
+        <v>1.08</v>
+      </c>
+      <c r="AL62">
+        <v>1.22</v>
+      </c>
+      <c r="AM62">
+        <v>2.5</v>
+      </c>
+      <c r="AN62">
+        <v>1.56</v>
+      </c>
+      <c r="AO62">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP62">
+        <v>1.7</v>
+      </c>
+      <c r="AQ62">
+        <v>0.5</v>
+      </c>
+      <c r="AR62">
+        <v>2</v>
+      </c>
+      <c r="AS62">
+        <v>1.07</v>
+      </c>
+      <c r="AT62">
+        <v>3.07</v>
+      </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>3</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>9</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>9</v>
+      </c>
+      <c r="BD62">
+        <v>1.45</v>
+      </c>
+      <c r="BE62">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF62">
+        <v>3.4</v>
+      </c>
+      <c r="BG62">
+        <v>1.2</v>
+      </c>
+      <c r="BH62">
+        <v>4</v>
+      </c>
+      <c r="BI62">
+        <v>1.39</v>
+      </c>
+      <c r="BJ62">
+        <v>2.75</v>
+      </c>
+      <c r="BK62">
+        <v>2.38</v>
+      </c>
+      <c r="BL62">
+        <v>1.95</v>
+      </c>
+      <c r="BM62">
+        <v>2.06</v>
+      </c>
+      <c r="BN62">
+        <v>1.72</v>
+      </c>
+      <c r="BO62">
+        <v>2.55</v>
+      </c>
+      <c r="BP62">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7329998</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45381.89583333334</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>89</v>
+      </c>
+      <c r="P63" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q63">
+        <v>2.5</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
+        <v>4.75</v>
+      </c>
+      <c r="T63">
+        <v>1.44</v>
+      </c>
+      <c r="U63">
+        <v>2.63</v>
+      </c>
+      <c r="V63">
+        <v>3.25</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>9</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>1.8</v>
+      </c>
+      <c r="AA63">
+        <v>3.3</v>
+      </c>
+      <c r="AB63">
+        <v>4</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>2.05</v>
+      </c>
+      <c r="AH63">
+        <v>1.75</v>
+      </c>
+      <c r="AI63">
+        <v>1.91</v>
+      </c>
+      <c r="AJ63">
+        <v>1.8</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>2.33</v>
+      </c>
+      <c r="AO63">
+        <v>1.7</v>
+      </c>
+      <c r="AP63">
+        <v>2.2</v>
+      </c>
+      <c r="AQ63">
+        <v>1.64</v>
+      </c>
+      <c r="AR63">
+        <v>1.64</v>
+      </c>
+      <c r="AS63">
+        <v>1.38</v>
+      </c>
+      <c r="AT63">
+        <v>3.02</v>
+      </c>
+      <c r="AU63">
+        <v>9</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>16</v>
+      </c>
+      <c r="AZ63">
+        <v>7</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>2.38</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['10', '72']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -867,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1332,7 +1335,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1413,7 +1416,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1619,7 +1622,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ4">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1822,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ5">
         <v>1.18</v>
@@ -2156,7 +2159,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2234,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
         <v>2.2</v>
@@ -2362,7 +2365,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2443,7 +2446,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2568,7 +2571,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2774,7 +2777,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2852,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2980,7 +2983,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3186,7 +3189,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3264,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>0.64</v>
@@ -3392,7 +3395,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3598,7 +3601,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3679,7 +3682,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3804,7 +3807,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4088,7 +4091,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ16">
         <v>1.36</v>
@@ -4294,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ17">
         <v>1.18</v>
@@ -4422,7 +4425,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4628,7 +4631,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4709,7 +4712,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4834,7 +4837,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4912,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ20">
         <v>0.64</v>
@@ -5040,7 +5043,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5246,7 +5249,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5324,7 +5327,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ22">
         <v>1.7</v>
@@ -5533,7 +5536,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ23">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5658,7 +5661,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5942,10 +5945,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6070,7 +6073,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6354,7 +6357,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ27">
         <v>1.36</v>
@@ -6482,7 +6485,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6563,7 +6566,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ28">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -6688,7 +6691,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7178,10 +7181,10 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ31">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7306,7 +7309,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7512,7 +7515,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7718,7 +7721,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7796,7 +7799,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ34">
         <v>2.2</v>
@@ -7924,7 +7927,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8130,7 +8133,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8211,7 +8214,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ36">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8336,7 +8339,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8417,7 +8420,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ37">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -8620,7 +8623,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -8829,7 +8832,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -8954,7 +8957,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9160,7 +9163,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9238,7 +9241,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ41">
         <v>1.64</v>
@@ -9366,7 +9369,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9572,7 +9575,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9650,7 +9653,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ43">
         <v>1.7</v>
@@ -9778,7 +9781,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9859,7 +9862,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ44">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10190,7 +10193,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10268,7 +10271,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ46">
         <v>0.64</v>
@@ -10396,7 +10399,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10477,7 +10480,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10680,7 +10683,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -10808,7 +10811,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10886,10 +10889,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11014,7 +11017,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11220,7 +11223,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11507,7 +11510,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11632,7 +11635,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11838,7 +11841,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12044,7 +12047,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12125,7 +12128,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ55">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12250,7 +12253,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12328,7 +12331,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56">
         <v>2.2</v>
@@ -12456,7 +12459,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12662,7 +12665,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12740,7 +12743,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58">
         <v>0.64</v>
@@ -12949,7 +12952,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13074,7 +13077,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13849,6 +13852,418 @@
       </c>
       <c r="BP63">
         <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7329997</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45382.77083333334</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q64">
+        <v>3.1</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
+        <v>3.6</v>
+      </c>
+      <c r="T64">
+        <v>1.43</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>3.21</v>
+      </c>
+      <c r="W64">
+        <v>1.33</v>
+      </c>
+      <c r="X64">
+        <v>6.5</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>2.32</v>
+      </c>
+      <c r="AA64">
+        <v>3.24</v>
+      </c>
+      <c r="AB64">
+        <v>2.97</v>
+      </c>
+      <c r="AC64">
+        <v>1.08</v>
+      </c>
+      <c r="AD64">
+        <v>7</v>
+      </c>
+      <c r="AE64">
+        <v>1.33</v>
+      </c>
+      <c r="AF64">
+        <v>3.25</v>
+      </c>
+      <c r="AG64">
+        <v>2.12</v>
+      </c>
+      <c r="AH64">
+        <v>1.64</v>
+      </c>
+      <c r="AI64">
+        <v>1.83</v>
+      </c>
+      <c r="AJ64">
+        <v>1.83</v>
+      </c>
+      <c r="AK64">
+        <v>1.53</v>
+      </c>
+      <c r="AL64">
+        <v>1.27</v>
+      </c>
+      <c r="AM64">
+        <v>1.29</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>1.3</v>
+      </c>
+      <c r="AP64">
+        <v>1.18</v>
+      </c>
+      <c r="AQ64">
+        <v>1.18</v>
+      </c>
+      <c r="AR64">
+        <v>1.39</v>
+      </c>
+      <c r="AS64">
+        <v>1.34</v>
+      </c>
+      <c r="AT64">
+        <v>2.73</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>6</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>9</v>
+      </c>
+      <c r="AZ64">
+        <v>9</v>
+      </c>
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>8</v>
+      </c>
+      <c r="BD64">
+        <v>2.02</v>
+      </c>
+      <c r="BE64">
+        <v>7.3</v>
+      </c>
+      <c r="BF64">
+        <v>2.14</v>
+      </c>
+      <c r="BG64">
+        <v>1.29</v>
+      </c>
+      <c r="BH64">
+        <v>3.3</v>
+      </c>
+      <c r="BI64">
+        <v>1.49</v>
+      </c>
+      <c r="BJ64">
+        <v>2.45</v>
+      </c>
+      <c r="BK64">
+        <v>1.82</v>
+      </c>
+      <c r="BL64">
+        <v>1.88</v>
+      </c>
+      <c r="BM64">
+        <v>2.35</v>
+      </c>
+      <c r="BN64">
+        <v>1.52</v>
+      </c>
+      <c r="BO64">
+        <v>3.15</v>
+      </c>
+      <c r="BP64">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7329999</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45382.875</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>89</v>
+      </c>
+      <c r="P65" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q65">
+        <v>3.4</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>3.6</v>
+      </c>
+      <c r="T65">
+        <v>1.5</v>
+      </c>
+      <c r="U65">
+        <v>2.5</v>
+      </c>
+      <c r="V65">
+        <v>3.25</v>
+      </c>
+      <c r="W65">
+        <v>1.33</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>2.55</v>
+      </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
+      <c r="AB65">
+        <v>2.7</v>
+      </c>
+      <c r="AC65">
+        <v>1.07</v>
+      </c>
+      <c r="AD65">
+        <v>7.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.38</v>
+      </c>
+      <c r="AF65">
+        <v>2.9</v>
+      </c>
+      <c r="AG65">
+        <v>2.25</v>
+      </c>
+      <c r="AH65">
+        <v>1.62</v>
+      </c>
+      <c r="AI65">
+        <v>2</v>
+      </c>
+      <c r="AJ65">
+        <v>1.73</v>
+      </c>
+      <c r="AK65">
+        <v>1.33</v>
+      </c>
+      <c r="AL65">
+        <v>1.28</v>
+      </c>
+      <c r="AM65">
+        <v>1.6</v>
+      </c>
+      <c r="AN65">
+        <v>1.56</v>
+      </c>
+      <c r="AO65">
+        <v>1.1</v>
+      </c>
+      <c r="AP65">
+        <v>1.4</v>
+      </c>
+      <c r="AQ65">
+        <v>1.27</v>
+      </c>
+      <c r="AR65">
+        <v>1.26</v>
+      </c>
+      <c r="AS65">
+        <v>1.64</v>
+      </c>
+      <c r="AT65">
+        <v>2.9</v>
+      </c>
+      <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>1</v>
+      </c>
+      <c r="AY65">
+        <v>8</v>
+      </c>
+      <c r="AZ65">
+        <v>5</v>
+      </c>
+      <c r="BA65">
+        <v>11</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>13</v>
+      </c>
+      <c r="BD65">
+        <v>1.6</v>
+      </c>
+      <c r="BE65">
+        <v>7.7</v>
+      </c>
+      <c r="BF65">
+        <v>2.9</v>
+      </c>
+      <c r="BG65">
+        <v>1.28</v>
+      </c>
+      <c r="BH65">
+        <v>3.2</v>
+      </c>
+      <c r="BI65">
+        <v>1.52</v>
+      </c>
+      <c r="BJ65">
+        <v>2.3</v>
+      </c>
+      <c r="BK65">
+        <v>1.89</v>
+      </c>
+      <c r="BL65">
+        <v>1.77</v>
+      </c>
+      <c r="BM65">
+        <v>2.48</v>
+      </c>
+      <c r="BN65">
+        <v>1.45</v>
+      </c>
+      <c r="BO65">
+        <v>3.42</v>
+      </c>
+      <c r="BP65">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,12 @@
     <t>['10', '72']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -493,9 +499,6 @@
     <t>['87']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -509,6 +512,12 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1335,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1825,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2159,7 +2168,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2365,7 +2374,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2443,10 +2452,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ8">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2571,7 +2580,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2649,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ9">
         <v>1.64</v>
@@ -2777,7 +2786,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2983,7 +2992,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3189,7 +3198,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3395,7 +3404,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3473,7 +3482,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.7</v>
@@ -3601,7 +3610,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3807,7 +3816,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3888,7 +3897,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4091,10 +4100,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4300,7 +4309,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ17">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4425,7 +4434,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4631,7 +4640,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4709,7 +4718,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ19">
         <v>1.27</v>
@@ -4837,7 +4846,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5043,7 +5052,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5121,7 +5130,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
         <v>1.64</v>
@@ -5249,7 +5258,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5327,7 +5336,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ22">
         <v>1.7</v>
@@ -5661,7 +5670,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5739,7 +5748,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.64</v>
@@ -6073,7 +6082,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6154,7 +6163,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ26">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6360,7 +6369,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6485,7 +6494,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6566,7 +6575,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ28">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -6691,7 +6700,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6978,7 +6987,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7181,7 +7190,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>1.27</v>
@@ -7309,7 +7318,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7387,7 +7396,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1.64</v>
@@ -7515,7 +7524,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7721,7 +7730,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7927,7 +7936,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8005,7 +8014,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ35">
         <v>0.64</v>
@@ -8133,7 +8142,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8211,7 +8220,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -8339,7 +8348,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8420,7 +8429,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -8626,7 +8635,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8957,7 +8966,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9038,7 +9047,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ40">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9163,7 +9172,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9369,7 +9378,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9450,7 +9459,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ42">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9575,7 +9584,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9781,7 +9790,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9859,7 +9868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>1.4</v>
@@ -10193,7 +10202,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10271,7 +10280,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46">
         <v>0.64</v>
@@ -10399,7 +10408,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10477,7 +10486,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>1.18</v>
@@ -10686,7 +10695,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10811,7 +10820,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10892,7 +10901,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11017,7 +11026,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11098,7 +11107,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ50">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11223,7 +11232,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11635,7 +11644,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11716,7 +11725,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -11841,7 +11850,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12047,7 +12056,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12253,7 +12262,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12331,7 +12340,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56">
         <v>2.2</v>
@@ -12459,7 +12468,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12537,10 +12546,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ57">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12665,7 +12674,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12949,7 +12958,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1.18</v>
@@ -13077,7 +13086,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13155,10 +13164,10 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13570,7 +13579,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13982,7 +13991,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ64">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14263,6 +14272,418 @@
         <v>3.42</v>
       </c>
       <c r="BP65">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7330005</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45387.79166666666</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>128</v>
+      </c>
+      <c r="P66" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q66">
+        <v>3.1</v>
+      </c>
+      <c r="R66">
+        <v>2.05</v>
+      </c>
+      <c r="S66">
+        <v>3.75</v>
+      </c>
+      <c r="T66">
+        <v>1.46</v>
+      </c>
+      <c r="U66">
+        <v>2.55</v>
+      </c>
+      <c r="V66">
+        <v>3.2</v>
+      </c>
+      <c r="W66">
+        <v>1.3</v>
+      </c>
+      <c r="X66">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>1.05</v>
+      </c>
+      <c r="Z66">
+        <v>2.3</v>
+      </c>
+      <c r="AA66">
+        <v>3.2</v>
+      </c>
+      <c r="AB66">
+        <v>3.1</v>
+      </c>
+      <c r="AC66">
+        <v>1.06</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66">
+        <v>1.36</v>
+      </c>
+      <c r="AF66">
+        <v>2.95</v>
+      </c>
+      <c r="AG66">
+        <v>2.2</v>
+      </c>
+      <c r="AH66">
+        <v>1.65</v>
+      </c>
+      <c r="AI66">
+        <v>1.91</v>
+      </c>
+      <c r="AJ66">
+        <v>1.8</v>
+      </c>
+      <c r="AK66">
+        <v>1.38</v>
+      </c>
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
+        <v>1.44</v>
+      </c>
+      <c r="AN66">
+        <v>1.18</v>
+      </c>
+      <c r="AO66">
+        <v>1.18</v>
+      </c>
+      <c r="AP66">
+        <v>1.17</v>
+      </c>
+      <c r="AQ66">
+        <v>1.17</v>
+      </c>
+      <c r="AR66">
+        <v>1.22</v>
+      </c>
+      <c r="AS66">
+        <v>1.39</v>
+      </c>
+      <c r="AT66">
+        <v>2.61</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>8</v>
+      </c>
+      <c r="AZ66">
+        <v>6</v>
+      </c>
+      <c r="BA66">
+        <v>2</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>7</v>
+      </c>
+      <c r="BD66">
+        <v>1.9</v>
+      </c>
+      <c r="BE66">
+        <v>7.6</v>
+      </c>
+      <c r="BF66">
+        <v>2.27</v>
+      </c>
+      <c r="BG66">
+        <v>1.19</v>
+      </c>
+      <c r="BH66">
+        <v>4</v>
+      </c>
+      <c r="BI66">
+        <v>1.43</v>
+      </c>
+      <c r="BJ66">
+        <v>2.62</v>
+      </c>
+      <c r="BK66">
+        <v>2.25</v>
+      </c>
+      <c r="BL66">
+        <v>1.9</v>
+      </c>
+      <c r="BM66">
+        <v>2.32</v>
+      </c>
+      <c r="BN66">
+        <v>1.54</v>
+      </c>
+      <c r="BO66">
+        <v>3.1</v>
+      </c>
+      <c r="BP66">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7330006</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45387.89583333334</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P67" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q67">
+        <v>3.1</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>3.75</v>
+      </c>
+      <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.65</v>
+      </c>
+      <c r="V67">
+        <v>3.1</v>
+      </c>
+      <c r="W67">
+        <v>1.34</v>
+      </c>
+      <c r="X67">
+        <v>8.1</v>
+      </c>
+      <c r="Y67">
+        <v>1.06</v>
+      </c>
+      <c r="Z67">
+        <v>2.25</v>
+      </c>
+      <c r="AA67">
+        <v>3.2</v>
+      </c>
+      <c r="AB67">
+        <v>3.1</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>7.9</v>
+      </c>
+      <c r="AE67">
+        <v>1.34</v>
+      </c>
+      <c r="AF67">
+        <v>2.88</v>
+      </c>
+      <c r="AG67">
+        <v>2.2</v>
+      </c>
+      <c r="AH67">
+        <v>1.65</v>
+      </c>
+      <c r="AI67">
+        <v>1.91</v>
+      </c>
+      <c r="AJ67">
+        <v>1.8</v>
+      </c>
+      <c r="AK67">
+        <v>1.44</v>
+      </c>
+      <c r="AL67">
+        <v>1.3</v>
+      </c>
+      <c r="AM67">
+        <v>1.43</v>
+      </c>
+      <c r="AN67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
+        <v>1.36</v>
+      </c>
+      <c r="AP67">
+        <v>0.55</v>
+      </c>
+      <c r="AQ67">
+        <v>1.33</v>
+      </c>
+      <c r="AR67">
+        <v>1.64</v>
+      </c>
+      <c r="AS67">
+        <v>1.42</v>
+      </c>
+      <c r="AT67">
+        <v>3.06</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>10</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>16</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>1.82</v>
+      </c>
+      <c r="BE67">
+        <v>7.5</v>
+      </c>
+      <c r="BF67">
+        <v>2.4</v>
+      </c>
+      <c r="BG67">
+        <v>1.28</v>
+      </c>
+      <c r="BH67">
+        <v>3.18</v>
+      </c>
+      <c r="BI67">
+        <v>1.53</v>
+      </c>
+      <c r="BJ67">
+        <v>2.28</v>
+      </c>
+      <c r="BK67">
+        <v>1.92</v>
+      </c>
+      <c r="BL67">
+        <v>1.75</v>
+      </c>
+      <c r="BM67">
+        <v>2.51</v>
+      </c>
+      <c r="BN67">
+        <v>1.44</v>
+      </c>
+      <c r="BO67">
+        <v>3.42</v>
+      </c>
+      <c r="BP67">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,12 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['37', '39']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -518,6 +524,9 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['12', '27', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,7 +1353,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -2040,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ6">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2168,7 +2177,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2246,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2374,7 +2383,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2580,7 +2589,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2786,7 +2795,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2867,7 +2876,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2992,7 +3001,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3070,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ11">
         <v>1.64</v>
@@ -3198,7 +3207,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3279,7 +3288,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3404,7 +3413,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3485,7 +3494,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3610,7 +3619,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3816,7 +3825,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4306,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ17">
         <v>1.17</v>
@@ -4434,7 +4443,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4512,10 +4521,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ18">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4640,7 +4649,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4721,7 +4730,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ19">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4846,7 +4855,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4927,7 +4936,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ20">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5052,7 +5061,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5258,7 +5267,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5339,7 +5348,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ22">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5542,7 +5551,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ23">
         <v>1.4</v>
@@ -5670,7 +5679,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6082,7 +6091,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6160,7 +6169,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ26">
         <v>1.17</v>
@@ -6366,7 +6375,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6494,7 +6503,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6700,7 +6709,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6778,10 +6787,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ29">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7193,7 +7202,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7318,7 +7327,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7524,7 +7533,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7605,7 +7614,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ33">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7730,7 +7739,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7811,7 +7820,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ34">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -7936,7 +7945,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8017,7 +8026,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ35">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8142,7 +8151,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8348,7 +8357,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8838,7 +8847,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ39">
         <v>1.18</v>
@@ -8966,7 +8975,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9044,7 +9053,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9172,7 +9181,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9250,7 +9259,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ41">
         <v>1.64</v>
@@ -9378,7 +9387,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9456,7 +9465,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ42">
         <v>1.17</v>
@@ -9584,7 +9593,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9662,10 +9671,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9790,7 +9799,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10202,7 +10211,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10283,7 +10292,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ46">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10408,7 +10417,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10820,7 +10829,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11026,7 +11035,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11104,7 +11113,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ50">
         <v>1.17</v>
@@ -11232,7 +11241,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11310,7 +11319,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ51">
         <v>1.64</v>
@@ -11519,7 +11528,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11722,7 +11731,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -11850,7 +11859,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -11931,7 +11940,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ54">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12056,7 +12065,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12262,7 +12271,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12343,7 +12352,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ56">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12468,7 +12477,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12674,7 +12683,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12752,10 +12761,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13086,7 +13095,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13370,7 +13379,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ61">
         <v>1.64</v>
@@ -13576,7 +13585,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ62">
         <v>0.55</v>
@@ -13782,7 +13791,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ63">
         <v>1.64</v>
@@ -14197,7 +14206,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ65">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14322,7 +14331,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14528,7 +14537,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14685,6 +14694,418 @@
       </c>
       <c r="BP67">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7330001</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45388.79166666666</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>130</v>
+      </c>
+      <c r="P68" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>2.3</v>
+      </c>
+      <c r="S68">
+        <v>2.25</v>
+      </c>
+      <c r="T68">
+        <v>1.3</v>
+      </c>
+      <c r="U68">
+        <v>3.32</v>
+      </c>
+      <c r="V68">
+        <v>2.4</v>
+      </c>
+      <c r="W68">
+        <v>1.53</v>
+      </c>
+      <c r="X68">
+        <v>5.6</v>
+      </c>
+      <c r="Y68">
+        <v>1.12</v>
+      </c>
+      <c r="Z68">
+        <v>4.2</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68">
+        <v>1.65</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+      <c r="AE68">
+        <v>1.17</v>
+      </c>
+      <c r="AF68">
+        <v>4.2</v>
+      </c>
+      <c r="AG68">
+        <v>1.85</v>
+      </c>
+      <c r="AH68">
+        <v>1.95</v>
+      </c>
+      <c r="AI68">
+        <v>1.83</v>
+      </c>
+      <c r="AJ68">
+        <v>1.83</v>
+      </c>
+      <c r="AK68">
+        <v>2.64</v>
+      </c>
+      <c r="AL68">
+        <v>1.16</v>
+      </c>
+      <c r="AM68">
+        <v>1.08</v>
+      </c>
+      <c r="AN68">
+        <v>0.64</v>
+      </c>
+      <c r="AO68">
+        <v>1.7</v>
+      </c>
+      <c r="AP68">
+        <v>0.58</v>
+      </c>
+      <c r="AQ68">
+        <v>1.82</v>
+      </c>
+      <c r="AR68">
+        <v>1.18</v>
+      </c>
+      <c r="AS68">
+        <v>1.87</v>
+      </c>
+      <c r="AT68">
+        <v>3.05</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>7</v>
+      </c>
+      <c r="AW68">
+        <v>1</v>
+      </c>
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>5</v>
+      </c>
+      <c r="AZ68">
+        <v>9</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>9</v>
+      </c>
+      <c r="BC68">
+        <v>12</v>
+      </c>
+      <c r="BD68">
+        <v>3.3</v>
+      </c>
+      <c r="BE68">
+        <v>7.7</v>
+      </c>
+      <c r="BF68">
+        <v>1.5</v>
+      </c>
+      <c r="BG68">
+        <v>1.29</v>
+      </c>
+      <c r="BH68">
+        <v>3.3</v>
+      </c>
+      <c r="BI68">
+        <v>1.56</v>
+      </c>
+      <c r="BJ68">
+        <v>2.27</v>
+      </c>
+      <c r="BK68">
+        <v>2.1</v>
+      </c>
+      <c r="BL68">
+        <v>1.73</v>
+      </c>
+      <c r="BM68">
+        <v>2.62</v>
+      </c>
+      <c r="BN68">
+        <v>1.43</v>
+      </c>
+      <c r="BO68">
+        <v>3.65</v>
+      </c>
+      <c r="BP68">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7330003</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>131</v>
+      </c>
+      <c r="P69" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q69">
+        <v>2.3</v>
+      </c>
+      <c r="R69">
+        <v>2.25</v>
+      </c>
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>1.35</v>
+      </c>
+      <c r="U69">
+        <v>2.85</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.37</v>
+      </c>
+      <c r="X69">
+        <v>5.8</v>
+      </c>
+      <c r="Y69">
+        <v>1.09</v>
+      </c>
+      <c r="Z69">
+        <v>1.65</v>
+      </c>
+      <c r="AA69">
+        <v>3.75</v>
+      </c>
+      <c r="AB69">
+        <v>4.75</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>10.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.22</v>
+      </c>
+      <c r="AF69">
+        <v>3.7</v>
+      </c>
+      <c r="AG69">
+        <v>1.85</v>
+      </c>
+      <c r="AH69">
+        <v>1.95</v>
+      </c>
+      <c r="AI69">
+        <v>1.83</v>
+      </c>
+      <c r="AJ69">
+        <v>1.83</v>
+      </c>
+      <c r="AK69">
+        <v>1.03</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>2.4</v>
+      </c>
+      <c r="AN69">
+        <v>2.2</v>
+      </c>
+      <c r="AO69">
+        <v>1.27</v>
+      </c>
+      <c r="AP69">
+        <v>2.27</v>
+      </c>
+      <c r="AQ69">
+        <v>1.17</v>
+      </c>
+      <c r="AR69">
+        <v>1.74</v>
+      </c>
+      <c r="AS69">
+        <v>1.47</v>
+      </c>
+      <c r="AT69">
+        <v>3.21</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>2</v>
+      </c>
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
+        <v>9</v>
+      </c>
+      <c r="AZ69">
+        <v>7</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>9</v>
+      </c>
+      <c r="BC69">
+        <v>12</v>
+      </c>
+      <c r="BD69">
+        <v>1.4</v>
+      </c>
+      <c r="BE69">
+        <v>9.4</v>
+      </c>
+      <c r="BF69">
+        <v>3.6</v>
+      </c>
+      <c r="BG69">
+        <v>1.32</v>
+      </c>
+      <c r="BH69">
+        <v>2.98</v>
+      </c>
+      <c r="BI69">
+        <v>1.59</v>
+      </c>
+      <c r="BJ69">
+        <v>2.16</v>
+      </c>
+      <c r="BK69">
+        <v>2.25</v>
+      </c>
+      <c r="BL69">
+        <v>1.73</v>
+      </c>
+      <c r="BM69">
+        <v>2.64</v>
+      </c>
+      <c r="BN69">
+        <v>1.4</v>
+      </c>
+      <c r="BO69">
+        <v>3.65</v>
+      </c>
+      <c r="BP69">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -888,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ3">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ9">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>1.17</v>
@@ -3082,7 +3082,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ11">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ12">
         <v>0.58</v>
@@ -3697,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ14">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3903,7 +3903,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ15">
         <v>0.55</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
         <v>0.58</v>
@@ -5142,7 +5142,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5554,7 +5554,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5760,7 +5760,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -5963,10 +5963,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6581,7 +6581,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -6993,7 +6993,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ30">
         <v>0.55</v>
@@ -7408,7 +7408,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7611,7 +7611,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ33">
         <v>1.82</v>
@@ -7817,7 +7817,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
         <v>2.27</v>
@@ -8232,7 +8232,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8435,7 +8435,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8641,7 +8641,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ38">
         <v>0.55</v>
@@ -8850,7 +8850,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ39">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9262,7 +9262,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9880,7 +9880,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10083,10 +10083,10 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ45">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10498,7 +10498,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10701,7 +10701,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>0.55</v>
@@ -10907,7 +10907,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -11322,7 +11322,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ51">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11525,7 +11525,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ52">
         <v>1.17</v>
@@ -11937,7 +11937,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
         <v>1.82</v>
@@ -12143,10 +12143,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12970,7 +12970,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13382,7 +13382,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ61">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13794,7 +13794,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ63">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -13997,7 +13997,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14203,7 +14203,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ65">
         <v>1.17</v>
@@ -15106,6 +15106,418 @@
       </c>
       <c r="BP69">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7330004</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45389.77083333334</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P70" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q70">
+        <v>4</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>2.88</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>9</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>3.5</v>
+      </c>
+      <c r="AA70">
+        <v>3.45</v>
+      </c>
+      <c r="AB70">
+        <v>1.83</v>
+      </c>
+      <c r="AC70">
+        <v>1.09</v>
+      </c>
+      <c r="AD70">
+        <v>3.05</v>
+      </c>
+      <c r="AE70">
+        <v>1.37</v>
+      </c>
+      <c r="AF70">
+        <v>3.05</v>
+      </c>
+      <c r="AG70">
+        <v>2</v>
+      </c>
+      <c r="AH70">
+        <v>1.7</v>
+      </c>
+      <c r="AI70">
+        <v>1.83</v>
+      </c>
+      <c r="AJ70">
+        <v>1.83</v>
+      </c>
+      <c r="AK70">
+        <v>1.82</v>
+      </c>
+      <c r="AL70">
+        <v>1.36</v>
+      </c>
+      <c r="AM70">
+        <v>1.29</v>
+      </c>
+      <c r="AN70">
+        <v>1.18</v>
+      </c>
+      <c r="AO70">
+        <v>1.64</v>
+      </c>
+      <c r="AP70">
+        <v>1.17</v>
+      </c>
+      <c r="AQ70">
+        <v>1.58</v>
+      </c>
+      <c r="AR70">
+        <v>1.37</v>
+      </c>
+      <c r="AS70">
+        <v>1.32</v>
+      </c>
+      <c r="AT70">
+        <v>2.69</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>8</v>
+      </c>
+      <c r="AW70">
+        <v>9</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>15</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>8</v>
+      </c>
+      <c r="BC70">
+        <v>11</v>
+      </c>
+      <c r="BD70">
+        <v>2.05</v>
+      </c>
+      <c r="BE70">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF70">
+        <v>1.96</v>
+      </c>
+      <c r="BG70">
+        <v>1.28</v>
+      </c>
+      <c r="BH70">
+        <v>3.18</v>
+      </c>
+      <c r="BI70">
+        <v>1.53</v>
+      </c>
+      <c r="BJ70">
+        <v>2.28</v>
+      </c>
+      <c r="BK70">
+        <v>1.86</v>
+      </c>
+      <c r="BL70">
+        <v>1.86</v>
+      </c>
+      <c r="BM70">
+        <v>2.51</v>
+      </c>
+      <c r="BN70">
+        <v>1.44</v>
+      </c>
+      <c r="BO70">
+        <v>3.42</v>
+      </c>
+      <c r="BP70">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7330002</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45389.875</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P71" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q71">
+        <v>3.25</v>
+      </c>
+      <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>3.5</v>
+      </c>
+      <c r="T71">
+        <v>1.43</v>
+      </c>
+      <c r="U71">
+        <v>2.74</v>
+      </c>
+      <c r="V71">
+        <v>3.2</v>
+      </c>
+      <c r="W71">
+        <v>1.34</v>
+      </c>
+      <c r="X71">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y71">
+        <v>1.05</v>
+      </c>
+      <c r="Z71">
+        <v>2.4</v>
+      </c>
+      <c r="AA71">
+        <v>3.25</v>
+      </c>
+      <c r="AB71">
+        <v>2.7</v>
+      </c>
+      <c r="AC71">
+        <v>1.08</v>
+      </c>
+      <c r="AD71">
+        <v>7</v>
+      </c>
+      <c r="AE71">
+        <v>1.33</v>
+      </c>
+      <c r="AF71">
+        <v>3.25</v>
+      </c>
+      <c r="AG71">
+        <v>2.15</v>
+      </c>
+      <c r="AH71">
+        <v>1.67</v>
+      </c>
+      <c r="AI71">
+        <v>1.83</v>
+      </c>
+      <c r="AJ71">
+        <v>1.83</v>
+      </c>
+      <c r="AK71">
+        <v>1.44</v>
+      </c>
+      <c r="AL71">
+        <v>1.33</v>
+      </c>
+      <c r="AM71">
+        <v>1.44</v>
+      </c>
+      <c r="AN71">
+        <v>1.4</v>
+      </c>
+      <c r="AO71">
+        <v>1.64</v>
+      </c>
+      <c r="AP71">
+        <v>1.36</v>
+      </c>
+      <c r="AQ71">
+        <v>1.58</v>
+      </c>
+      <c r="AR71">
+        <v>1.26</v>
+      </c>
+      <c r="AS71">
+        <v>1.49</v>
+      </c>
+      <c r="AT71">
+        <v>2.75</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>4</v>
+      </c>
+      <c r="BA71">
+        <v>8</v>
+      </c>
+      <c r="BB71">
+        <v>1</v>
+      </c>
+      <c r="BC71">
+        <v>9</v>
+      </c>
+      <c r="BD71">
+        <v>2.05</v>
+      </c>
+      <c r="BE71">
+        <v>7.4</v>
+      </c>
+      <c r="BF71">
+        <v>2.1</v>
+      </c>
+      <c r="BG71">
+        <v>1.22</v>
+      </c>
+      <c r="BH71">
+        <v>3.65</v>
+      </c>
+      <c r="BI71">
+        <v>1.42</v>
+      </c>
+      <c r="BJ71">
+        <v>2.57</v>
+      </c>
+      <c r="BK71">
+        <v>1.9</v>
+      </c>
+      <c r="BL71">
+        <v>1.8</v>
+      </c>
+      <c r="BM71">
+        <v>2.21</v>
+      </c>
+      <c r="BN71">
+        <v>1.56</v>
+      </c>
+      <c r="BO71">
+        <v>2.98</v>
+      </c>
+      <c r="BP71">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>['12', '27', '90+3']</t>
+  </si>
+  <si>
+    <t>['48', '90']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,7 +1437,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1640,7 +1643,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ4">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2052,7 +2055,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ6">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ7">
         <v>2.27</v>
@@ -2873,10 +2876,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3285,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3700,7 +3703,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -4315,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ17">
         <v>1.17</v>
@@ -4521,7 +4524,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ18">
         <v>2.27</v>
@@ -4730,7 +4733,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4933,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ20">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5554,7 +5557,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ23">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5963,10 +5966,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6169,7 +6172,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ26">
         <v>1.17</v>
@@ -6375,7 +6378,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -7202,7 +7205,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7817,7 +7820,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ34">
         <v>2.27</v>
@@ -8026,7 +8029,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ35">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8232,7 +8235,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8641,7 +8644,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>0.55</v>
@@ -8850,7 +8853,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9053,7 +9056,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9259,7 +9262,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ41">
         <v>1.58</v>
@@ -9671,7 +9674,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ43">
         <v>1.82</v>
@@ -9880,7 +9883,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10292,7 +10295,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ46">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10498,7 +10501,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10701,7 +10704,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ48">
         <v>0.55</v>
@@ -10907,7 +10910,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -11319,7 +11322,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ51">
         <v>1.58</v>
@@ -11528,7 +11531,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -12146,7 +12149,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ55">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12761,10 +12764,10 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ58">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -12970,7 +12973,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13379,7 +13382,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ61">
         <v>1.58</v>
@@ -13997,7 +14000,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14203,10 +14206,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14821,7 +14824,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ68">
         <v>1.82</v>
@@ -15030,7 +15033,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15233,7 +15236,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ70">
         <v>1.58</v>
@@ -15439,7 +15442,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.58</v>
@@ -15518,6 +15521,418 @@
       </c>
       <c r="BP71">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7330010</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45394.8125</v>
+      </c>
+      <c r="F72">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>94</v>
+      </c>
+      <c r="P72" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q72">
+        <v>2.6</v>
+      </c>
+      <c r="R72">
+        <v>2.2</v>
+      </c>
+      <c r="S72">
+        <v>4.33</v>
+      </c>
+      <c r="T72">
+        <v>1.42</v>
+      </c>
+      <c r="U72">
+        <v>2.6</v>
+      </c>
+      <c r="V72">
+        <v>3.1</v>
+      </c>
+      <c r="W72">
+        <v>1.3</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.07</v>
+      </c>
+      <c r="Z72">
+        <v>1.91</v>
+      </c>
+      <c r="AA72">
+        <v>3.5</v>
+      </c>
+      <c r="AB72">
+        <v>3.6</v>
+      </c>
+      <c r="AC72">
+        <v>1.06</v>
+      </c>
+      <c r="AD72">
+        <v>7.2</v>
+      </c>
+      <c r="AE72">
+        <v>1.35</v>
+      </c>
+      <c r="AF72">
+        <v>2.95</v>
+      </c>
+      <c r="AG72">
+        <v>1.9</v>
+      </c>
+      <c r="AH72">
+        <v>1.9</v>
+      </c>
+      <c r="AI72">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.91</v>
+      </c>
+      <c r="AK72">
+        <v>1.16</v>
+      </c>
+      <c r="AL72">
+        <v>1.32</v>
+      </c>
+      <c r="AM72">
+        <v>1.7</v>
+      </c>
+      <c r="AN72">
+        <v>1.17</v>
+      </c>
+      <c r="AO72">
+        <v>1.17</v>
+      </c>
+      <c r="AP72">
+        <v>1.31</v>
+      </c>
+      <c r="AQ72">
+        <v>1.08</v>
+      </c>
+      <c r="AR72">
+        <v>1.49</v>
+      </c>
+      <c r="AS72">
+        <v>1.34</v>
+      </c>
+      <c r="AT72">
+        <v>2.83</v>
+      </c>
+      <c r="AU72">
+        <v>5</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>8</v>
+      </c>
+      <c r="BB72">
+        <v>3</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>1.93</v>
+      </c>
+      <c r="BE72">
+        <v>7.6</v>
+      </c>
+      <c r="BF72">
+        <v>2.32</v>
+      </c>
+      <c r="BG72">
+        <v>1.25</v>
+      </c>
+      <c r="BH72">
+        <v>3.58</v>
+      </c>
+      <c r="BI72">
+        <v>1.45</v>
+      </c>
+      <c r="BJ72">
+        <v>2.55</v>
+      </c>
+      <c r="BK72">
+        <v>1.95</v>
+      </c>
+      <c r="BL72">
+        <v>1.85</v>
+      </c>
+      <c r="BM72">
+        <v>2.2</v>
+      </c>
+      <c r="BN72">
+        <v>1.6</v>
+      </c>
+      <c r="BO72">
+        <v>2.8</v>
+      </c>
+      <c r="BP72">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7330012</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45394.91666666666</v>
+      </c>
+      <c r="F73">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>101</v>
+      </c>
+      <c r="P73" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q73">
+        <v>3.75</v>
+      </c>
+      <c r="R73">
+        <v>2.05</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>1.4</v>
+      </c>
+      <c r="U73">
+        <v>2.9</v>
+      </c>
+      <c r="V73">
+        <v>3</v>
+      </c>
+      <c r="W73">
+        <v>1.37</v>
+      </c>
+      <c r="X73">
+        <v>7.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.07</v>
+      </c>
+      <c r="Z73">
+        <v>3.25</v>
+      </c>
+      <c r="AA73">
+        <v>3</v>
+      </c>
+      <c r="AB73">
+        <v>2.3</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>8.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.3</v>
+      </c>
+      <c r="AF73">
+        <v>3.2</v>
+      </c>
+      <c r="AG73">
+        <v>2.15</v>
+      </c>
+      <c r="AH73">
+        <v>1.67</v>
+      </c>
+      <c r="AI73">
+        <v>1.83</v>
+      </c>
+      <c r="AJ73">
+        <v>1.83</v>
+      </c>
+      <c r="AK73">
+        <v>1.44</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.5</v>
+      </c>
+      <c r="AN73">
+        <v>0.58</v>
+      </c>
+      <c r="AO73">
+        <v>1.36</v>
+      </c>
+      <c r="AP73">
+        <v>0.54</v>
+      </c>
+      <c r="AQ73">
+        <v>1.5</v>
+      </c>
+      <c r="AR73">
+        <v>1.16</v>
+      </c>
+      <c r="AS73">
+        <v>1.18</v>
+      </c>
+      <c r="AT73">
+        <v>2.34</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
+      <c r="AX73">
+        <v>10</v>
+      </c>
+      <c r="AY73">
+        <v>9</v>
+      </c>
+      <c r="AZ73">
+        <v>15</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>8</v>
+      </c>
+      <c r="BD73">
+        <v>2.11</v>
+      </c>
+      <c r="BE73">
+        <v>7.41</v>
+      </c>
+      <c r="BF73">
+        <v>2.11</v>
+      </c>
+      <c r="BG73">
+        <v>1.25</v>
+      </c>
+      <c r="BH73">
+        <v>3.52</v>
+      </c>
+      <c r="BI73">
+        <v>1.46</v>
+      </c>
+      <c r="BJ73">
+        <v>2.55</v>
+      </c>
+      <c r="BK73">
+        <v>2.2</v>
+      </c>
+      <c r="BL73">
+        <v>1.95</v>
+      </c>
+      <c r="BM73">
+        <v>2.2</v>
+      </c>
+      <c r="BN73">
+        <v>1.59</v>
+      </c>
+      <c r="BO73">
+        <v>2.8</v>
+      </c>
+      <c r="BP73">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,12 @@
     <t>['37', '39']</t>
   </si>
   <si>
+    <t>['29', '57']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -430,9 +436,6 @@
     <t>['43']</t>
   </si>
   <si>
-    <t>['58']</t>
-  </si>
-  <si>
     <t>['6', '62', '67', '83']</t>
   </si>
   <si>
@@ -530,6 +533,12 @@
   </si>
   <si>
     <t>['48', '90']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['1', '25']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1240,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1356,7 +1365,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1434,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ3">
         <v>1.08</v>
@@ -1846,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2180,7 +2189,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2386,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2464,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2592,7 +2601,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2670,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ9">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2798,7 +2807,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3004,7 +3013,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3210,7 +3219,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3416,7 +3425,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3622,7 +3631,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3828,7 +3837,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3906,10 +3915,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4112,7 +4121,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4321,7 +4330,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4446,7 +4455,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4652,7 +4661,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4730,7 +4739,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19">
         <v>1.31</v>
@@ -4858,7 +4867,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5064,7 +5073,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5142,7 +5151,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
         <v>1.58</v>
@@ -5270,7 +5279,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5348,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
         <v>1.82</v>
@@ -5682,7 +5691,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5763,7 +5772,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6094,7 +6103,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6175,7 +6184,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6506,7 +6515,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6584,10 +6593,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -6712,7 +6721,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6999,7 +7008,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ30">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7202,7 +7211,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ31">
         <v>1.31</v>
@@ -7330,7 +7339,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7536,7 +7545,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7614,7 +7623,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ33">
         <v>1.82</v>
@@ -7742,7 +7751,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7948,7 +7957,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8026,7 +8035,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ35">
         <v>0.54</v>
@@ -8154,7 +8163,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8232,7 +8241,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8360,7 +8369,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8441,7 +8450,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -8647,7 +8656,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8978,7 +8987,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9184,7 +9193,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9265,7 +9274,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ41">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9390,7 +9399,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9471,7 +9480,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9596,7 +9605,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9802,7 +9811,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10086,7 +10095,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ45">
         <v>1.58</v>
@@ -10214,7 +10223,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10292,7 +10301,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ46">
         <v>0.54</v>
@@ -10420,7 +10429,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10498,7 +10507,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ47">
         <v>1.08</v>
@@ -10707,7 +10716,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ48">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10832,7 +10841,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10913,7 +10922,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11038,7 +11047,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11119,7 +11128,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ50">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11244,7 +11253,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11325,7 +11334,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ51">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11862,7 +11871,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12068,7 +12077,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12146,7 +12155,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12274,7 +12283,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12352,7 +12361,7 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ56">
         <v>2.27</v>
@@ -12480,7 +12489,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12558,10 +12567,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12686,7 +12695,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13098,7 +13107,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13176,7 +13185,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -13591,7 +13600,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ62">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13797,7 +13806,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ63">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14003,7 +14012,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14334,7 +14343,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14412,10 +14421,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14540,7 +14549,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14618,7 +14627,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -14746,7 +14755,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15239,7 +15248,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ70">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15776,7 +15785,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15933,6 +15942,418 @@
       </c>
       <c r="BP73">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7330009</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45395.79166666666</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>132</v>
+      </c>
+      <c r="P74" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q74">
+        <v>2.3</v>
+      </c>
+      <c r="R74">
+        <v>2.2</v>
+      </c>
+      <c r="S74">
+        <v>5.5</v>
+      </c>
+      <c r="T74">
+        <v>1.4</v>
+      </c>
+      <c r="U74">
+        <v>2.75</v>
+      </c>
+      <c r="V74">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <v>1.36</v>
+      </c>
+      <c r="X74">
+        <v>8</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>1.67</v>
+      </c>
+      <c r="AA74">
+        <v>3.8</v>
+      </c>
+      <c r="AB74">
+        <v>4.33</v>
+      </c>
+      <c r="AC74">
+        <v>1.06</v>
+      </c>
+      <c r="AD74">
+        <v>3.6</v>
+      </c>
+      <c r="AE74">
+        <v>1.31</v>
+      </c>
+      <c r="AF74">
+        <v>3.55</v>
+      </c>
+      <c r="AG74">
+        <v>2</v>
+      </c>
+      <c r="AH74">
+        <v>1.8</v>
+      </c>
+      <c r="AI74">
+        <v>1.91</v>
+      </c>
+      <c r="AJ74">
+        <v>1.8</v>
+      </c>
+      <c r="AK74">
+        <v>1.18</v>
+      </c>
+      <c r="AL74">
+        <v>1.29</v>
+      </c>
+      <c r="AM74">
+        <v>2.1</v>
+      </c>
+      <c r="AN74">
+        <v>1.58</v>
+      </c>
+      <c r="AO74">
+        <v>1.17</v>
+      </c>
+      <c r="AP74">
+        <v>1.69</v>
+      </c>
+      <c r="AQ74">
+        <v>1.08</v>
+      </c>
+      <c r="AR74">
+        <v>1.3</v>
+      </c>
+      <c r="AS74">
+        <v>1.24</v>
+      </c>
+      <c r="AT74">
+        <v>2.54</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>3</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>9</v>
+      </c>
+      <c r="AZ74">
+        <v>7</v>
+      </c>
+      <c r="BA74">
+        <v>4</v>
+      </c>
+      <c r="BB74">
+        <v>9</v>
+      </c>
+      <c r="BC74">
+        <v>13</v>
+      </c>
+      <c r="BD74">
+        <v>1.5</v>
+      </c>
+      <c r="BE74">
+        <v>9.1</v>
+      </c>
+      <c r="BF74">
+        <v>2.93</v>
+      </c>
+      <c r="BG74">
+        <v>1.25</v>
+      </c>
+      <c r="BH74">
+        <v>3.6</v>
+      </c>
+      <c r="BI74">
+        <v>1.42</v>
+      </c>
+      <c r="BJ74">
+        <v>2.62</v>
+      </c>
+      <c r="BK74">
+        <v>2.2</v>
+      </c>
+      <c r="BL74">
+        <v>2.1</v>
+      </c>
+      <c r="BM74">
+        <v>2.05</v>
+      </c>
+      <c r="BN74">
+        <v>1.7</v>
+      </c>
+      <c r="BO74">
+        <v>2.6</v>
+      </c>
+      <c r="BP74">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7330008</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45395.89583333334</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s">
+        <v>76</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>133</v>
+      </c>
+      <c r="P75" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q75">
+        <v>3.25</v>
+      </c>
+      <c r="R75">
+        <v>2.1</v>
+      </c>
+      <c r="S75">
+        <v>3.25</v>
+      </c>
+      <c r="T75">
+        <v>1.54</v>
+      </c>
+      <c r="U75">
+        <v>2.36</v>
+      </c>
+      <c r="V75">
+        <v>3.38</v>
+      </c>
+      <c r="W75">
+        <v>1.27</v>
+      </c>
+      <c r="X75">
+        <v>8.35</v>
+      </c>
+      <c r="Y75">
+        <v>1.03</v>
+      </c>
+      <c r="Z75">
+        <v>2.55</v>
+      </c>
+      <c r="AA75">
+        <v>3.25</v>
+      </c>
+      <c r="AB75">
+        <v>2.6</v>
+      </c>
+      <c r="AC75">
+        <v>1.09</v>
+      </c>
+      <c r="AD75">
+        <v>6</v>
+      </c>
+      <c r="AE75">
+        <v>1.45</v>
+      </c>
+      <c r="AF75">
+        <v>2.65</v>
+      </c>
+      <c r="AG75">
+        <v>1.95</v>
+      </c>
+      <c r="AH75">
+        <v>1.85</v>
+      </c>
+      <c r="AI75">
+        <v>1.73</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>1.4</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.36</v>
+      </c>
+      <c r="AN75">
+        <v>1.17</v>
+      </c>
+      <c r="AO75">
+        <v>0.55</v>
+      </c>
+      <c r="AP75">
+        <v>1.08</v>
+      </c>
+      <c r="AQ75">
+        <v>0.75</v>
+      </c>
+      <c r="AR75">
+        <v>1.39</v>
+      </c>
+      <c r="AS75">
+        <v>1.15</v>
+      </c>
+      <c r="AT75">
+        <v>2.54</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>7</v>
+      </c>
+      <c r="AX75">
+        <v>7</v>
+      </c>
+      <c r="AY75">
+        <v>12</v>
+      </c>
+      <c r="AZ75">
+        <v>12</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>5</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>2.11</v>
+      </c>
+      <c r="BE75">
+        <v>7.41</v>
+      </c>
+      <c r="BF75">
+        <v>2.11</v>
+      </c>
+      <c r="BG75">
+        <v>1.29</v>
+      </c>
+      <c r="BH75">
+        <v>3.3</v>
+      </c>
+      <c r="BI75">
+        <v>1.45</v>
+      </c>
+      <c r="BJ75">
+        <v>2.55</v>
+      </c>
+      <c r="BK75">
+        <v>2.38</v>
+      </c>
+      <c r="BL75">
+        <v>1.95</v>
+      </c>
+      <c r="BM75">
+        <v>2.3</v>
+      </c>
+      <c r="BN75">
+        <v>1.55</v>
+      </c>
+      <c r="BO75">
+        <v>3.1</v>
+      </c>
+      <c r="BP75">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['8', '51', '90']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -539,6 +542,9 @@
   </si>
   <si>
     <t>['1', '25']</t>
+  </si>
+  <si>
+    <t>['19', '65', '67']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ2">
         <v>0.75</v>
@@ -1365,7 +1371,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1649,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2061,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ6">
         <v>0.54</v>
@@ -2189,7 +2195,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2270,7 +2276,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ7">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2395,7 +2401,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2601,7 +2607,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2807,7 +2813,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3013,7 +3019,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3091,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3425,7 +3431,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3503,10 +3509,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ13">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3631,7 +3637,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3709,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ14">
         <v>1.08</v>
@@ -3837,7 +3843,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4124,7 +4130,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4455,7 +4461,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4536,7 +4542,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ18">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4661,7 +4667,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4867,7 +4873,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5073,7 +5079,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5154,7 +5160,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5279,7 +5285,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5360,7 +5366,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5563,7 +5569,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5691,7 +5697,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5769,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ24">
         <v>1.69</v>
@@ -6103,7 +6109,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6390,7 +6396,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6515,7 +6521,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6799,10 +6805,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ29">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7005,7 +7011,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ30">
         <v>0.75</v>
@@ -7339,7 +7345,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7417,10 +7423,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ32">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7545,7 +7551,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7626,7 +7632,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ33">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7751,7 +7757,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7832,7 +7838,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ34">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -7957,7 +7963,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8163,7 +8169,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8369,7 +8375,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8447,7 +8453,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ37">
         <v>1.08</v>
@@ -8859,7 +8865,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ39">
         <v>1.08</v>
@@ -8987,7 +8993,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9068,7 +9074,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9193,7 +9199,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9399,7 +9405,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9477,7 +9483,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
         <v>1.08</v>
@@ -9605,7 +9611,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9686,7 +9692,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ43">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9811,7 +9817,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9889,7 +9895,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10098,7 +10104,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ45">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10223,7 +10229,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10429,7 +10435,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10841,7 +10847,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11047,7 +11053,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11125,7 +11131,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ50">
         <v>1.08</v>
@@ -11253,7 +11259,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11537,7 +11543,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ52">
         <v>1.31</v>
@@ -11743,10 +11749,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -11871,7 +11877,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -11949,10 +11955,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ54">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12077,7 +12083,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12283,7 +12289,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12364,7 +12370,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ56">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12489,7 +12495,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12695,7 +12701,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12979,7 +12985,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ59">
         <v>1.08</v>
@@ -13107,7 +13113,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13188,7 +13194,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ60">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13394,7 +13400,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ61">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13597,7 +13603,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ62">
         <v>0.75</v>
@@ -13803,7 +13809,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>1.69</v>
@@ -14343,7 +14349,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14549,7 +14555,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14630,7 +14636,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14755,7 +14761,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14836,7 +14842,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ68">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15039,7 +15045,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ69">
         <v>1.31</v>
@@ -15454,7 +15460,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15785,7 +15791,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15991,7 +15997,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16197,7 +16203,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16354,6 +16360,418 @@
       </c>
       <c r="BP75">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7330011</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45396.77083333334</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s">
+        <v>79</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>89</v>
+      </c>
+      <c r="P76" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q76">
+        <v>4</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>2.88</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.6</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.32</v>
+      </c>
+      <c r="X76">
+        <v>7.2</v>
+      </c>
+      <c r="Y76">
+        <v>1.05</v>
+      </c>
+      <c r="Z76">
+        <v>3.25</v>
+      </c>
+      <c r="AA76">
+        <v>3.3</v>
+      </c>
+      <c r="AB76">
+        <v>2.05</v>
+      </c>
+      <c r="AC76">
+        <v>1.07</v>
+      </c>
+      <c r="AD76">
+        <v>6.8</v>
+      </c>
+      <c r="AE76">
+        <v>1.3</v>
+      </c>
+      <c r="AF76">
+        <v>3.2</v>
+      </c>
+      <c r="AG76">
+        <v>2.05</v>
+      </c>
+      <c r="AH76">
+        <v>1.65</v>
+      </c>
+      <c r="AI76">
+        <v>1.91</v>
+      </c>
+      <c r="AJ76">
+        <v>1.8</v>
+      </c>
+      <c r="AK76">
+        <v>1.8</v>
+      </c>
+      <c r="AL76">
+        <v>1.3</v>
+      </c>
+      <c r="AM76">
+        <v>1.13</v>
+      </c>
+      <c r="AN76">
+        <v>1.58</v>
+      </c>
+      <c r="AO76">
+        <v>2.27</v>
+      </c>
+      <c r="AP76">
+        <v>1.46</v>
+      </c>
+      <c r="AQ76">
+        <v>2.33</v>
+      </c>
+      <c r="AR76">
+        <v>1.47</v>
+      </c>
+      <c r="AS76">
+        <v>1.49</v>
+      </c>
+      <c r="AT76">
+        <v>2.96</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>7</v>
+      </c>
+      <c r="AW76">
+        <v>7</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>10</v>
+      </c>
+      <c r="AZ76">
+        <v>12</v>
+      </c>
+      <c r="BA76">
+        <v>1</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
+        <v>6</v>
+      </c>
+      <c r="BD76">
+        <v>2.32</v>
+      </c>
+      <c r="BE76">
+        <v>7.6</v>
+      </c>
+      <c r="BF76">
+        <v>1.93</v>
+      </c>
+      <c r="BG76">
+        <v>1.36</v>
+      </c>
+      <c r="BH76">
+        <v>2.9</v>
+      </c>
+      <c r="BI76">
+        <v>1.48</v>
+      </c>
+      <c r="BJ76">
+        <v>2.47</v>
+      </c>
+      <c r="BK76">
+        <v>1.9</v>
+      </c>
+      <c r="BL76">
+        <v>1.8</v>
+      </c>
+      <c r="BM76">
+        <v>2.47</v>
+      </c>
+      <c r="BN76">
+        <v>1.48</v>
+      </c>
+      <c r="BO76">
+        <v>2.95</v>
+      </c>
+      <c r="BP76">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7330007</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45396.875</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>134</v>
+      </c>
+      <c r="P77" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>2.38</v>
+      </c>
+      <c r="S77">
+        <v>6.5</v>
+      </c>
+      <c r="T77">
+        <v>1.34</v>
+      </c>
+      <c r="U77">
+        <v>3.1</v>
+      </c>
+      <c r="V77">
+        <v>2.55</v>
+      </c>
+      <c r="W77">
+        <v>1.46</v>
+      </c>
+      <c r="X77">
+        <v>6.3</v>
+      </c>
+      <c r="Y77">
+        <v>1.1</v>
+      </c>
+      <c r="Z77">
+        <v>1.45</v>
+      </c>
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>6</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>10</v>
+      </c>
+      <c r="AE77">
+        <v>1.22</v>
+      </c>
+      <c r="AF77">
+        <v>4</v>
+      </c>
+      <c r="AG77">
+        <v>1.85</v>
+      </c>
+      <c r="AH77">
+        <v>1.95</v>
+      </c>
+      <c r="AI77">
+        <v>1.91</v>
+      </c>
+      <c r="AJ77">
+        <v>1.8</v>
+      </c>
+      <c r="AK77">
+        <v>1.08</v>
+      </c>
+      <c r="AL77">
+        <v>1.2</v>
+      </c>
+      <c r="AM77">
+        <v>2.7</v>
+      </c>
+      <c r="AN77">
+        <v>1.82</v>
+      </c>
+      <c r="AO77">
+        <v>1.33</v>
+      </c>
+      <c r="AP77">
+        <v>1.92</v>
+      </c>
+      <c r="AQ77">
+        <v>1.23</v>
+      </c>
+      <c r="AR77">
+        <v>1.95</v>
+      </c>
+      <c r="AS77">
+        <v>1.41</v>
+      </c>
+      <c r="AT77">
+        <v>3.36</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>2</v>
+      </c>
+      <c r="AW77">
+        <v>5</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>10</v>
+      </c>
+      <c r="AZ77">
+        <v>2</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>3</v>
+      </c>
+      <c r="BC77">
+        <v>10</v>
+      </c>
+      <c r="BD77">
+        <v>1.45</v>
+      </c>
+      <c r="BE77">
+        <v>9.1</v>
+      </c>
+      <c r="BF77">
+        <v>3.42</v>
+      </c>
+      <c r="BG77">
+        <v>1.32</v>
+      </c>
+      <c r="BH77">
+        <v>3.1</v>
+      </c>
+      <c r="BI77">
+        <v>1.49</v>
+      </c>
+      <c r="BJ77">
+        <v>2.45</v>
+      </c>
+      <c r="BK77">
+        <v>1.88</v>
+      </c>
+      <c r="BL77">
+        <v>1.82</v>
+      </c>
+      <c r="BM77">
+        <v>2.45</v>
+      </c>
+      <c r="BN77">
+        <v>1.49</v>
+      </c>
+      <c r="BO77">
+        <v>3.29</v>
+      </c>
+      <c r="BP77">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>['19', '65', '67']</t>
+  </si>
+  <si>
+    <t>['12', '45', '59']</t>
+  </si>
+  <si>
+    <t>['43', '78']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1452,7 +1458,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ3">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1655,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2067,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.54</v>
@@ -2891,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.31</v>
@@ -3100,7 +3106,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3303,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>0.54</v>
@@ -3512,7 +3518,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ13">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3715,10 +3721,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ14">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -4951,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.54</v>
@@ -5160,7 +5166,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5366,7 +5372,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5572,7 +5578,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5981,10 +5987,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6805,7 +6811,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>2.33</v>
@@ -7011,7 +7017,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30">
         <v>0.75</v>
@@ -7426,7 +7432,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ32">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7632,7 +7638,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ33">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7835,7 +7841,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>2.33</v>
@@ -8250,7 +8256,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8453,7 +8459,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>1.08</v>
@@ -8659,7 +8665,7 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -8865,10 +8871,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9692,7 +9698,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ43">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9898,7 +9904,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10104,7 +10110,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ45">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10516,7 +10522,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10719,7 +10725,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -10925,7 +10931,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>1.08</v>
@@ -11131,7 +11137,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.08</v>
@@ -11543,7 +11549,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
         <v>1.31</v>
@@ -11955,10 +11961,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12164,7 +12170,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12988,7 +12994,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13400,7 +13406,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ61">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -13603,7 +13609,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>0.75</v>
@@ -14015,7 +14021,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.08</v>
@@ -14221,7 +14227,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>1.31</v>
@@ -14842,7 +14848,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ68">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15251,7 +15257,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1.69</v>
@@ -15457,10 +15463,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15666,7 +15672,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ72">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15872,7 +15878,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16487,7 +16493,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
         <v>2.33</v>
@@ -16693,7 +16699,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1.23</v>
@@ -16772,6 +16778,418 @@
       </c>
       <c r="BP77">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7330015</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45401.79166666666</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>89</v>
+      </c>
+      <c r="P78" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q78">
+        <v>3.6</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>3.2</v>
+      </c>
+      <c r="T78">
+        <v>1.45</v>
+      </c>
+      <c r="U78">
+        <v>2.55</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>1.33</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.05</v>
+      </c>
+      <c r="Z78">
+        <v>2.9</v>
+      </c>
+      <c r="AA78">
+        <v>3.2</v>
+      </c>
+      <c r="AB78">
+        <v>2.38</v>
+      </c>
+      <c r="AC78">
+        <v>1.06</v>
+      </c>
+      <c r="AD78">
+        <v>8</v>
+      </c>
+      <c r="AE78">
+        <v>1.36</v>
+      </c>
+      <c r="AF78">
+        <v>3</v>
+      </c>
+      <c r="AG78">
+        <v>2.15</v>
+      </c>
+      <c r="AH78">
+        <v>1.67</v>
+      </c>
+      <c r="AI78">
+        <v>1.83</v>
+      </c>
+      <c r="AJ78">
+        <v>1.83</v>
+      </c>
+      <c r="AK78">
+        <v>1.45</v>
+      </c>
+      <c r="AL78">
+        <v>1.28</v>
+      </c>
+      <c r="AM78">
+        <v>1.48</v>
+      </c>
+      <c r="AN78">
+        <v>1.08</v>
+      </c>
+      <c r="AO78">
+        <v>1.46</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>1.57</v>
+      </c>
+      <c r="AR78">
+        <v>1.38</v>
+      </c>
+      <c r="AS78">
+        <v>1.33</v>
+      </c>
+      <c r="AT78">
+        <v>2.71</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>9</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>2</v>
+      </c>
+      <c r="AY78">
+        <v>8</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>5</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
+        <v>1.95</v>
+      </c>
+      <c r="BE78">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF78">
+        <v>2.04</v>
+      </c>
+      <c r="BG78">
+        <v>1.24</v>
+      </c>
+      <c r="BH78">
+        <v>3.6</v>
+      </c>
+      <c r="BI78">
+        <v>1.44</v>
+      </c>
+      <c r="BJ78">
+        <v>2.51</v>
+      </c>
+      <c r="BK78">
+        <v>2</v>
+      </c>
+      <c r="BL78">
+        <v>1.82</v>
+      </c>
+      <c r="BM78">
+        <v>2.28</v>
+      </c>
+      <c r="BN78">
+        <v>1.53</v>
+      </c>
+      <c r="BO78">
+        <v>3.07</v>
+      </c>
+      <c r="BP78">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7330013</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45401.89583333334</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>89</v>
+      </c>
+      <c r="P79" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q79">
+        <v>4.75</v>
+      </c>
+      <c r="R79">
+        <v>2.05</v>
+      </c>
+      <c r="S79">
+        <v>2.6</v>
+      </c>
+      <c r="T79">
+        <v>1.37</v>
+      </c>
+      <c r="U79">
+        <v>2.94</v>
+      </c>
+      <c r="V79">
+        <v>2.73</v>
+      </c>
+      <c r="W79">
+        <v>1.42</v>
+      </c>
+      <c r="X79">
+        <v>6.75</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>4.2</v>
+      </c>
+      <c r="AA79">
+        <v>3.25</v>
+      </c>
+      <c r="AB79">
+        <v>1.91</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>9.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.25</v>
+      </c>
+      <c r="AF79">
+        <v>3.42</v>
+      </c>
+      <c r="AG79">
+        <v>2.2</v>
+      </c>
+      <c r="AH79">
+        <v>1.65</v>
+      </c>
+      <c r="AI79">
+        <v>2</v>
+      </c>
+      <c r="AJ79">
+        <v>1.73</v>
+      </c>
+      <c r="AK79">
+        <v>1.91</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.2</v>
+      </c>
+      <c r="AN79">
+        <v>1.5</v>
+      </c>
+      <c r="AO79">
+        <v>1.92</v>
+      </c>
+      <c r="AP79">
+        <v>1.38</v>
+      </c>
+      <c r="AQ79">
+        <v>2</v>
+      </c>
+      <c r="AR79">
+        <v>1.36</v>
+      </c>
+      <c r="AS79">
+        <v>1.81</v>
+      </c>
+      <c r="AT79">
+        <v>3.17</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>10</v>
+      </c>
+      <c r="BA79">
+        <v>5</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>7</v>
+      </c>
+      <c r="BD79">
+        <v>2.39</v>
+      </c>
+      <c r="BE79">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF79">
+        <v>1.71</v>
+      </c>
+      <c r="BG79">
+        <v>1.23</v>
+      </c>
+      <c r="BH79">
+        <v>3.69</v>
+      </c>
+      <c r="BI79">
+        <v>1.42</v>
+      </c>
+      <c r="BJ79">
+        <v>2.57</v>
+      </c>
+      <c r="BK79">
+        <v>2.2</v>
+      </c>
+      <c r="BL79">
+        <v>1.95</v>
+      </c>
+      <c r="BM79">
+        <v>2.19</v>
+      </c>
+      <c r="BN79">
+        <v>1.57</v>
+      </c>
+      <c r="BO79">
+        <v>2.93</v>
+      </c>
+      <c r="BP79">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>['8', '51', '90']</t>
+  </si>
+  <si>
+    <t>['12', '85']</t>
+  </si>
+  <si>
+    <t>['14', '58']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -912,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2">
         <v>0.75</v>
@@ -1377,7 +1383,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1867,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.08</v>
@@ -2076,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2201,7 +2207,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2282,7 +2288,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ7">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2407,7 +2413,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2488,7 +2494,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2613,7 +2619,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2819,7 +2825,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3025,7 +3031,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3103,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ11">
         <v>1.57</v>
@@ -3312,7 +3318,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3437,7 +3443,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3515,7 +3521,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3643,7 +3649,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3849,7 +3855,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4133,10 +4139,10 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR16">
         <v>1.67</v>
@@ -4467,7 +4473,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4545,10 +4551,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4673,7 +4679,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4879,7 +4885,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4960,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5085,7 +5091,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5291,7 +5297,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5369,7 +5375,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5575,7 +5581,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ23">
         <v>1.38</v>
@@ -5703,7 +5709,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5781,7 +5787,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ24">
         <v>1.69</v>
@@ -6115,7 +6121,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6193,7 +6199,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26">
         <v>1.08</v>
@@ -6402,7 +6408,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ27">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
         <v>1.24</v>
@@ -6527,7 +6533,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6608,7 +6614,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ28">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -6814,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7223,7 +7229,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.31</v>
@@ -7351,7 +7357,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7429,7 +7435,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
         <v>1.57</v>
@@ -7557,7 +7563,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7763,7 +7769,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7844,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -7969,7 +7975,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8050,7 +8056,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ35">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8175,7 +8181,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8381,7 +8387,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8462,7 +8468,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -8999,7 +9005,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9077,10 +9083,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ40">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -9205,7 +9211,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9411,7 +9417,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9489,7 +9495,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ42">
         <v>1.08</v>
@@ -9617,7 +9623,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9823,7 +9829,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9901,7 +9907,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10235,7 +10241,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10313,10 +10319,10 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10441,7 +10447,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10853,7 +10859,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10934,7 +10940,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11059,7 +11065,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11265,7 +11271,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11343,7 +11349,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ51">
         <v>1.69</v>
@@ -11755,10 +11761,10 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ53">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR53">
         <v>1.71</v>
@@ -11883,7 +11889,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12089,7 +12095,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12295,7 +12301,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12373,10 +12379,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12501,7 +12507,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12707,7 +12713,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12788,7 +12794,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ58">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -12991,7 +12997,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13119,7 +13125,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13200,7 +13206,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ60">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
         <v>1.2</v>
@@ -13403,7 +13409,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61">
         <v>1.57</v>
@@ -13815,7 +13821,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ63">
         <v>1.69</v>
@@ -14024,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14355,7 +14361,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14436,7 +14442,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ66">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14561,7 +14567,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14642,7 +14648,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14767,7 +14773,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14845,7 +14851,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15051,7 +15057,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ69">
         <v>1.31</v>
@@ -15797,7 +15803,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15875,7 +15881,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16003,7 +16009,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16209,7 +16215,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16287,7 +16293,7 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.75</v>
@@ -16415,7 +16421,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16496,7 +16502,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ76">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16702,7 +16708,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16827,7 +16833,7 @@
         <v>89</v>
       </c>
       <c r="P78" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q78">
         <v>3.6</v>
@@ -17033,7 +17039,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q79">
         <v>4.75</v>
@@ -17190,6 +17196,418 @@
       </c>
       <c r="BP79">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7330018</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45402.77083333334</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>70</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>135</v>
+      </c>
+      <c r="P80" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>3.75</v>
+      </c>
+      <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.87</v>
+      </c>
+      <c r="V80">
+        <v>3.04</v>
+      </c>
+      <c r="W80">
+        <v>1.37</v>
+      </c>
+      <c r="X80">
+        <v>7.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.06</v>
+      </c>
+      <c r="Z80">
+        <v>1.97</v>
+      </c>
+      <c r="AA80">
+        <v>3.31</v>
+      </c>
+      <c r="AB80">
+        <v>3.68</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>8.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.33</v>
+      </c>
+      <c r="AF80">
+        <v>3</v>
+      </c>
+      <c r="AG80">
+        <v>2</v>
+      </c>
+      <c r="AH80">
+        <v>1.73</v>
+      </c>
+      <c r="AI80">
+        <v>1.83</v>
+      </c>
+      <c r="AJ80">
+        <v>1.83</v>
+      </c>
+      <c r="AK80">
+        <v>1.33</v>
+      </c>
+      <c r="AL80">
+        <v>1.3</v>
+      </c>
+      <c r="AM80">
+        <v>1.73</v>
+      </c>
+      <c r="AN80">
+        <v>1.23</v>
+      </c>
+      <c r="AO80">
+        <v>1.08</v>
+      </c>
+      <c r="AP80">
+        <v>1.36</v>
+      </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
+      <c r="AR80">
+        <v>1.24</v>
+      </c>
+      <c r="AS80">
+        <v>1.32</v>
+      </c>
+      <c r="AT80">
+        <v>2.56</v>
+      </c>
+      <c r="AU80">
+        <v>7</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>12</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>19</v>
+      </c>
+      <c r="AZ80">
+        <v>3</v>
+      </c>
+      <c r="BA80">
+        <v>6</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>6</v>
+      </c>
+      <c r="BD80">
+        <v>1.78</v>
+      </c>
+      <c r="BE80">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="BF80">
+        <v>2.46</v>
+      </c>
+      <c r="BG80">
+        <v>1.29</v>
+      </c>
+      <c r="BH80">
+        <v>3.29</v>
+      </c>
+      <c r="BI80">
+        <v>1.56</v>
+      </c>
+      <c r="BJ80">
+        <v>2.27</v>
+      </c>
+      <c r="BK80">
+        <v>2.25</v>
+      </c>
+      <c r="BL80">
+        <v>1.73</v>
+      </c>
+      <c r="BM80">
+        <v>2.62</v>
+      </c>
+      <c r="BN80">
+        <v>1.43</v>
+      </c>
+      <c r="BO80">
+        <v>2.88</v>
+      </c>
+      <c r="BP80">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7330014</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45402.875</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>136</v>
+      </c>
+      <c r="P81" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q81">
+        <v>2.1</v>
+      </c>
+      <c r="R81">
+        <v>2.38</v>
+      </c>
+      <c r="S81">
+        <v>5.5</v>
+      </c>
+      <c r="T81">
+        <v>1.33</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
+        <v>2.45</v>
+      </c>
+      <c r="W81">
+        <v>1.48</v>
+      </c>
+      <c r="X81">
+        <v>5.25</v>
+      </c>
+      <c r="Y81">
+        <v>1.11</v>
+      </c>
+      <c r="Z81">
+        <v>1.53</v>
+      </c>
+      <c r="AA81">
+        <v>3.75</v>
+      </c>
+      <c r="AB81">
+        <v>5</v>
+      </c>
+      <c r="AC81">
+        <v>1.04</v>
+      </c>
+      <c r="AD81">
+        <v>9</v>
+      </c>
+      <c r="AE81">
+        <v>1.22</v>
+      </c>
+      <c r="AF81">
+        <v>3.95</v>
+      </c>
+      <c r="AG81">
+        <v>1.73</v>
+      </c>
+      <c r="AH81">
+        <v>2.08</v>
+      </c>
+      <c r="AI81">
+        <v>1.8</v>
+      </c>
+      <c r="AJ81">
+        <v>1.91</v>
+      </c>
+      <c r="AK81">
+        <v>1.1</v>
+      </c>
+      <c r="AL81">
+        <v>1.16</v>
+      </c>
+      <c r="AM81">
+        <v>2.21</v>
+      </c>
+      <c r="AN81">
+        <v>2.33</v>
+      </c>
+      <c r="AO81">
+        <v>0.54</v>
+      </c>
+      <c r="AP81">
+        <v>2.38</v>
+      </c>
+      <c r="AQ81">
+        <v>0.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.7</v>
+      </c>
+      <c r="AS81">
+        <v>1.35</v>
+      </c>
+      <c r="AT81">
+        <v>3.05</v>
+      </c>
+      <c r="AU81">
+        <v>10</v>
+      </c>
+      <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>2</v>
+      </c>
+      <c r="AY81">
+        <v>15</v>
+      </c>
+      <c r="AZ81">
+        <v>5</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>5</v>
+      </c>
+      <c r="BC81">
+        <v>8</v>
+      </c>
+      <c r="BD81">
+        <v>1.32</v>
+      </c>
+      <c r="BE81">
+        <v>10.2</v>
+      </c>
+      <c r="BF81">
+        <v>4.24</v>
+      </c>
+      <c r="BG81">
+        <v>1.31</v>
+      </c>
+      <c r="BH81">
+        <v>3.14</v>
+      </c>
+      <c r="BI81">
+        <v>1.77</v>
+      </c>
+      <c r="BJ81">
+        <v>1.95</v>
+      </c>
+      <c r="BK81">
+        <v>2.03</v>
+      </c>
+      <c r="BL81">
+        <v>1.7</v>
+      </c>
+      <c r="BM81">
+        <v>2.7</v>
+      </c>
+      <c r="BN81">
+        <v>1.41</v>
+      </c>
+      <c r="BO81">
+        <v>3.34</v>
+      </c>
+      <c r="BP81">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['14', '58']</t>
   </si>
   <si>
+    <t>['4', '10', '15', '90+3']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -557,6 +560,12 @@
   </si>
   <si>
     <t>['43', '78']</t>
+  </si>
+  <si>
+    <t>['25', '67', '73', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1267,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1383,7 +1392,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1461,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1876,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2207,7 +2216,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2285,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>2.38</v>
@@ -2413,7 +2422,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2491,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2619,7 +2628,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2697,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ9">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2825,7 +2834,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2906,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3031,7 +3040,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3443,7 +3452,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3649,7 +3658,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3855,7 +3864,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3933,10 +3942,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4345,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4473,7 +4482,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4679,7 +4688,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4757,10 +4766,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ19">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4885,7 +4894,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5091,7 +5100,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5169,7 +5178,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ21">
         <v>1.57</v>
@@ -5297,7 +5306,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5709,7 +5718,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5790,7 +5799,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ24">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR24">
         <v>1.32</v>
@@ -6121,7 +6130,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6202,7 +6211,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ26">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6405,7 +6414,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>1.36</v>
@@ -6533,7 +6542,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6611,7 +6620,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7026,7 +7035,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7232,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7357,7 +7366,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7563,7 +7572,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7641,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -7769,7 +7778,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7975,7 +7984,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8053,7 +8062,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
@@ -8181,7 +8190,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8259,7 +8268,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8387,7 +8396,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8674,7 +8683,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9005,7 +9014,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9211,7 +9220,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9289,10 +9298,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9417,7 +9426,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9498,7 +9507,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ42">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9623,7 +9632,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9701,7 +9710,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -9829,7 +9838,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10113,7 +10122,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ45">
         <v>1.57</v>
@@ -10241,7 +10250,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10447,7 +10456,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10525,7 +10534,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10734,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10859,7 +10868,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11065,7 +11074,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11146,7 +11155,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11271,7 +11280,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11352,7 +11361,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ51">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR51">
         <v>1.3</v>
@@ -11558,7 +11567,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11889,7 +11898,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12095,7 +12104,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12173,7 +12182,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ55">
         <v>1.38</v>
@@ -12301,7 +12310,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12507,7 +12516,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12585,10 +12594,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ57">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12713,7 +12722,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12791,7 +12800,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13125,7 +13134,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13203,7 +13212,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ60">
         <v>1.36</v>
@@ -13618,7 +13627,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13824,7 +13833,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14236,7 +14245,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14361,7 +14370,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14439,7 +14448,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14567,7 +14576,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14645,7 +14654,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ67">
         <v>1.36</v>
@@ -14773,7 +14782,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15060,7 +15069,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ69">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15266,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15675,7 +15684,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -15803,7 +15812,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16009,7 +16018,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16087,10 +16096,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ74">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16215,7 +16224,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16296,7 +16305,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16421,7 +16430,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16833,7 +16842,7 @@
         <v>89</v>
       </c>
       <c r="P78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q78">
         <v>3.6</v>
@@ -17039,7 +17048,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q79">
         <v>4.75</v>
@@ -17608,6 +17617,418 @@
       </c>
       <c r="BP81">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7330016</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45403.77083333334</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>8</v>
+      </c>
+      <c r="O82" t="s">
+        <v>137</v>
+      </c>
+      <c r="P82" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q82">
+        <v>3.5</v>
+      </c>
+      <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>3.25</v>
+      </c>
+      <c r="T82">
+        <v>1.44</v>
+      </c>
+      <c r="U82">
+        <v>2.47</v>
+      </c>
+      <c r="V82">
+        <v>3.19</v>
+      </c>
+      <c r="W82">
+        <v>1.22</v>
+      </c>
+      <c r="X82">
+        <v>7.8</v>
+      </c>
+      <c r="Y82">
+        <v>1.05</v>
+      </c>
+      <c r="Z82">
+        <v>2.75</v>
+      </c>
+      <c r="AA82">
+        <v>3.2</v>
+      </c>
+      <c r="AB82">
+        <v>2.5</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>8.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.33</v>
+      </c>
+      <c r="AF82">
+        <v>3</v>
+      </c>
+      <c r="AG82">
+        <v>2.1</v>
+      </c>
+      <c r="AH82">
+        <v>1.67</v>
+      </c>
+      <c r="AI82">
+        <v>1.83</v>
+      </c>
+      <c r="AJ82">
+        <v>1.83</v>
+      </c>
+      <c r="AK82">
+        <v>1.45</v>
+      </c>
+      <c r="AL82">
+        <v>1.27</v>
+      </c>
+      <c r="AM82">
+        <v>1.34</v>
+      </c>
+      <c r="AN82">
+        <v>1.08</v>
+      </c>
+      <c r="AO82">
+        <v>1.31</v>
+      </c>
+      <c r="AP82">
+        <v>1.07</v>
+      </c>
+      <c r="AQ82">
+        <v>1.29</v>
+      </c>
+      <c r="AR82">
+        <v>1.25</v>
+      </c>
+      <c r="AS82">
+        <v>1.44</v>
+      </c>
+      <c r="AT82">
+        <v>2.69</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>6</v>
+      </c>
+      <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
+        <v>8</v>
+      </c>
+      <c r="AY82">
+        <v>5</v>
+      </c>
+      <c r="AZ82">
+        <v>14</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>8</v>
+      </c>
+      <c r="BC82">
+        <v>10</v>
+      </c>
+      <c r="BD82">
+        <v>2.1</v>
+      </c>
+      <c r="BE82">
+        <v>7.6</v>
+      </c>
+      <c r="BF82">
+        <v>2.1</v>
+      </c>
+      <c r="BG82">
+        <v>1.2</v>
+      </c>
+      <c r="BH82">
+        <v>4</v>
+      </c>
+      <c r="BI82">
+        <v>1.31</v>
+      </c>
+      <c r="BJ82">
+        <v>3.14</v>
+      </c>
+      <c r="BK82">
+        <v>2</v>
+      </c>
+      <c r="BL82">
+        <v>2.25</v>
+      </c>
+      <c r="BM82">
+        <v>1.99</v>
+      </c>
+      <c r="BN82">
+        <v>1.73</v>
+      </c>
+      <c r="BO82">
+        <v>2.6</v>
+      </c>
+      <c r="BP82">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7330017</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>89</v>
+      </c>
+      <c r="P83" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q83">
+        <v>3.75</v>
+      </c>
+      <c r="R83">
+        <v>2.05</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.63</v>
+      </c>
+      <c r="V83">
+        <v>3.25</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>1.06</v>
+      </c>
+      <c r="Z83">
+        <v>3.1</v>
+      </c>
+      <c r="AA83">
+        <v>3.1</v>
+      </c>
+      <c r="AB83">
+        <v>2.2</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>2.15</v>
+      </c>
+      <c r="AH83">
+        <v>1.67</v>
+      </c>
+      <c r="AI83">
+        <v>1.83</v>
+      </c>
+      <c r="AJ83">
+        <v>1.83</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0.75</v>
+      </c>
+      <c r="AO83">
+        <v>1.69</v>
+      </c>
+      <c r="AP83">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ83">
+        <v>1.79</v>
+      </c>
+      <c r="AR83">
+        <v>1.66</v>
+      </c>
+      <c r="AS83">
+        <v>1.47</v>
+      </c>
+      <c r="AT83">
+        <v>3.13</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>5</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>9</v>
+      </c>
+      <c r="AZ83">
+        <v>12</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>6</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>2.2</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['4', '10', '15', '90+3']</t>
   </si>
   <si>
+    <t>['27', '54', '62', '66']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -481,9 +487,6 @@
     <t>['23', '53', '62']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -566,6 +569,9 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['20', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1392,7 +1398,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1473,7 +1479,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1676,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
         <v>1.38</v>
@@ -1885,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2091,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2216,7 +2222,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2422,7 +2428,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2628,7 +2634,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2706,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
         <v>1.79</v>
@@ -2834,7 +2840,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2912,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3040,7 +3046,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3121,7 +3127,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ11">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3327,7 +3333,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3452,7 +3458,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3658,7 +3664,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3736,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR14">
         <v>1.61</v>
@@ -3864,7 +3870,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4357,7 +4363,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -4482,7 +4488,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4560,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18">
         <v>2.38</v>
@@ -4688,7 +4694,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4894,7 +4900,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4972,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.8</v>
@@ -5100,7 +5106,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5178,10 +5184,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5306,7 +5312,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5718,7 +5724,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6005,7 +6011,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6130,7 +6136,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6208,10 +6214,10 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
         <v>1.5</v>
@@ -6542,7 +6548,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -7032,7 +7038,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ30">
         <v>0.6899999999999999</v>
@@ -7366,7 +7372,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7447,7 +7453,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7572,7 +7578,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -7778,7 +7784,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7856,7 +7862,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ34">
         <v>2.38</v>
@@ -7984,7 +7990,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8065,7 +8071,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -8190,7 +8196,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8268,7 +8274,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8396,7 +8402,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8474,7 +8480,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8889,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR39">
         <v>1.98</v>
@@ -9014,7 +9020,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9092,7 +9098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ40">
         <v>1.36</v>
@@ -9220,7 +9226,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9426,7 +9432,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9507,7 +9513,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ42">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9632,7 +9638,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9838,7 +9844,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10125,7 +10131,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
         <v>1.36</v>
@@ -10250,7 +10256,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10331,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10456,7 +10462,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10534,10 +10540,10 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10740,7 +10746,7 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ48">
         <v>0.6899999999999999</v>
@@ -10868,7 +10874,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11074,7 +11080,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11155,7 +11161,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11280,7 +11286,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11358,7 +11364,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
         <v>1.79</v>
@@ -11564,7 +11570,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11898,7 +11904,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -11976,7 +11982,7 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12104,7 +12110,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12310,7 +12316,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12516,7 +12522,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12597,7 +12603,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ57">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.75</v>
@@ -12722,7 +12728,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12803,7 +12809,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.39</v>
@@ -13009,7 +13015,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13134,7 +13140,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13212,7 +13218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60">
         <v>1.36</v>
@@ -13418,10 +13424,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ61">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR61">
         <v>1.17</v>
@@ -14036,7 +14042,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14370,7 +14376,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14448,7 +14454,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14576,7 +14582,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14782,7 +14788,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14860,7 +14866,7 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15272,7 +15278,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ70">
         <v>1.79</v>
@@ -15481,7 +15487,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -15687,7 +15693,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR72">
         <v>1.49</v>
@@ -15812,7 +15818,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15890,7 +15896,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16018,7 +16024,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16099,7 +16105,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ74">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16224,7 +16230,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16430,7 +16436,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16508,7 +16514,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ76">
         <v>2.38</v>
@@ -16842,7 +16848,7 @@
         <v>89</v>
       </c>
       <c r="P78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q78">
         <v>3.6</v>
@@ -16920,10 +16926,10 @@
         <v>1.46</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ78">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR78">
         <v>1.38</v>
@@ -17048,7 +17054,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q79">
         <v>4.75</v>
@@ -17541,7 +17547,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.7</v>
@@ -17666,7 +17672,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17744,7 +17750,7 @@
         <v>1.31</v>
       </c>
       <c r="AP82">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ82">
         <v>1.29</v>
@@ -17872,7 +17878,7 @@
         <v>89</v>
       </c>
       <c r="P83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -18029,6 +18035,418 @@
       </c>
       <c r="BP83">
         <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7330023</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45408.85416666666</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>138</v>
+      </c>
+      <c r="P84" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q84">
+        <v>3.75</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>2.88</v>
+      </c>
+      <c r="T84">
+        <v>1.38</v>
+      </c>
+      <c r="U84">
+        <v>2.97</v>
+      </c>
+      <c r="V84">
+        <v>2.91</v>
+      </c>
+      <c r="W84">
+        <v>1.39</v>
+      </c>
+      <c r="X84">
+        <v>7.31</v>
+      </c>
+      <c r="Y84">
+        <v>1.06</v>
+      </c>
+      <c r="Z84">
+        <v>3.25</v>
+      </c>
+      <c r="AA84">
+        <v>3.3</v>
+      </c>
+      <c r="AB84">
+        <v>2.15</v>
+      </c>
+      <c r="AC84">
+        <v>1.06</v>
+      </c>
+      <c r="AD84">
+        <v>8</v>
+      </c>
+      <c r="AE84">
+        <v>1.33</v>
+      </c>
+      <c r="AF84">
+        <v>3.2</v>
+      </c>
+      <c r="AG84">
+        <v>1.95</v>
+      </c>
+      <c r="AH84">
+        <v>1.85</v>
+      </c>
+      <c r="AI84">
+        <v>1.73</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>1.45</v>
+      </c>
+      <c r="AL84">
+        <v>1.29</v>
+      </c>
+      <c r="AM84">
+        <v>1.45</v>
+      </c>
+      <c r="AN84">
+        <v>0.5</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>0.67</v>
+      </c>
+      <c r="AQ84">
+        <v>0.93</v>
+      </c>
+      <c r="AR84">
+        <v>1.17</v>
+      </c>
+      <c r="AS84">
+        <v>1.43</v>
+      </c>
+      <c r="AT84">
+        <v>2.6</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>9</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>19</v>
+      </c>
+      <c r="AY84">
+        <v>9</v>
+      </c>
+      <c r="AZ84">
+        <v>28</v>
+      </c>
+      <c r="BA84">
+        <v>2</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>7</v>
+      </c>
+      <c r="BD84">
+        <v>1.88</v>
+      </c>
+      <c r="BE84">
+        <v>7.5</v>
+      </c>
+      <c r="BF84">
+        <v>2.4</v>
+      </c>
+      <c r="BG84">
+        <v>1.25</v>
+      </c>
+      <c r="BH84">
+        <v>3.52</v>
+      </c>
+      <c r="BI84">
+        <v>1.44</v>
+      </c>
+      <c r="BJ84">
+        <v>2.5</v>
+      </c>
+      <c r="BK84">
+        <v>2.38</v>
+      </c>
+      <c r="BL84">
+        <v>1.9</v>
+      </c>
+      <c r="BM84">
+        <v>2.3</v>
+      </c>
+      <c r="BN84">
+        <v>1.52</v>
+      </c>
+      <c r="BO84">
+        <v>3.18</v>
+      </c>
+      <c r="BP84">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7330022</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45409.875</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>77</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>139</v>
+      </c>
+      <c r="P85" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q85">
+        <v>2.4</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>1.42</v>
+      </c>
+      <c r="U85">
+        <v>2.6</v>
+      </c>
+      <c r="V85">
+        <v>3.1</v>
+      </c>
+      <c r="W85">
+        <v>1.3</v>
+      </c>
+      <c r="X85">
+        <v>6.8</v>
+      </c>
+      <c r="Y85">
+        <v>1.05</v>
+      </c>
+      <c r="Z85">
+        <v>1.75</v>
+      </c>
+      <c r="AA85">
+        <v>3.4</v>
+      </c>
+      <c r="AB85">
+        <v>5</v>
+      </c>
+      <c r="AC85">
+        <v>1.04</v>
+      </c>
+      <c r="AD85">
+        <v>7.8</v>
+      </c>
+      <c r="AE85">
+        <v>1.32</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>2.1</v>
+      </c>
+      <c r="AH85">
+        <v>1.7</v>
+      </c>
+      <c r="AI85">
+        <v>2</v>
+      </c>
+      <c r="AJ85">
+        <v>1.73</v>
+      </c>
+      <c r="AK85">
+        <v>1.1</v>
+      </c>
+      <c r="AL85">
+        <v>1.3</v>
+      </c>
+      <c r="AM85">
+        <v>1.9</v>
+      </c>
+      <c r="AN85">
+        <v>1.57</v>
+      </c>
+      <c r="AO85">
+        <v>1.07</v>
+      </c>
+      <c r="AP85">
+        <v>1.47</v>
+      </c>
+      <c r="AQ85">
+        <v>1.2</v>
+      </c>
+      <c r="AR85">
+        <v>1.44</v>
+      </c>
+      <c r="AS85">
+        <v>1.23</v>
+      </c>
+      <c r="AT85">
+        <v>2.67</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>6</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>9</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>9</v>
+      </c>
+      <c r="BC85">
+        <v>14</v>
+      </c>
+      <c r="BD85">
+        <v>1.52</v>
+      </c>
+      <c r="BE85">
+        <v>8.5</v>
+      </c>
+      <c r="BF85">
+        <v>3.25</v>
+      </c>
+      <c r="BG85">
+        <v>1.22</v>
+      </c>
+      <c r="BH85">
+        <v>3.8</v>
+      </c>
+      <c r="BI85">
+        <v>1.41</v>
+      </c>
+      <c r="BJ85">
+        <v>2.7</v>
+      </c>
+      <c r="BK85">
+        <v>1.91</v>
+      </c>
+      <c r="BL85">
+        <v>1.99</v>
+      </c>
+      <c r="BM85">
+        <v>2.2</v>
+      </c>
+      <c r="BN85">
+        <v>1.6</v>
+      </c>
+      <c r="BO85">
+        <v>2.9</v>
+      </c>
+      <c r="BP85">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -434,6 +434,15 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['9', '89']</t>
+  </si>
+  <si>
+    <t>['25', '32', '85']</t>
+  </si>
+  <si>
+    <t>['15', '27', '50', '75']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -933,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1282,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ2">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1398,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -1685,7 +1694,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1888,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ5">
         <v>1.2</v>
@@ -2094,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2222,7 +2231,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2300,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2428,7 +2437,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2506,10 +2515,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2634,7 +2643,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2840,7 +2849,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2921,7 +2930,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3046,7 +3055,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3124,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ11">
         <v>1.47</v>
@@ -3330,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0.67</v>
@@ -3458,7 +3467,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3539,7 +3548,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -3664,7 +3673,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3870,7 +3879,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -3951,7 +3960,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ15">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR15">
         <v>1.26</v>
@@ -4154,7 +4163,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ16">
         <v>1.36</v>
@@ -4360,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>1.2</v>
@@ -4488,7 +4497,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4569,7 +4578,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4694,7 +4703,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4772,10 +4781,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.77</v>
@@ -4900,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5106,7 +5115,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5312,7 +5321,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5390,10 +5399,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR22">
         <v>1.61</v>
@@ -5596,10 +5605,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ23">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5724,7 +5733,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6008,7 +6017,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.93</v>
@@ -6136,7 +6145,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6420,7 +6429,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>1.36</v>
@@ -6548,7 +6557,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.2</v>
@@ -6629,7 +6638,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR28">
         <v>1.3</v>
@@ -6832,10 +6841,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ29">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR29">
         <v>2.35</v>
@@ -7041,7 +7050,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ30">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR30">
         <v>1.47</v>
@@ -7244,10 +7253,10 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7372,7 +7381,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7659,7 +7668,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR33">
         <v>1.34</v>
@@ -7784,7 +7793,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -7865,7 +7874,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ34">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR34">
         <v>1.7</v>
@@ -7990,7 +7999,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8068,7 +8077,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8196,7 +8205,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8277,7 +8286,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8402,7 +8411,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8483,7 +8492,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR37">
         <v>1.59</v>
@@ -8686,10 +8695,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8892,7 +8901,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ39">
         <v>0.93</v>
@@ -9020,7 +9029,7 @@
         <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9226,7 +9235,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9304,7 +9313,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>1.79</v>
@@ -9432,7 +9441,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9510,7 +9519,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ42">
         <v>1.2</v>
@@ -9638,7 +9647,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9716,10 +9725,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR43">
         <v>1.28</v>
@@ -9844,7 +9853,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9925,7 +9934,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ44">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.26</v>
@@ -10256,7 +10265,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10334,7 +10343,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10462,7 +10471,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10749,7 +10758,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ48">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10874,7 +10883,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10952,10 +10961,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR49">
         <v>1.08</v>
@@ -11080,7 +11089,7 @@
         <v>89</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>1.8</v>
@@ -11158,7 +11167,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11286,7 +11295,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11573,7 +11582,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.53</v>
@@ -11776,7 +11785,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ53">
         <v>1.36</v>
@@ -11904,7 +11913,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -11985,7 +11994,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12110,7 +12119,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12191,7 +12200,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12316,7 +12325,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12394,10 +12403,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ56">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12522,7 +12531,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12600,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ57">
         <v>1.2</v>
@@ -12728,7 +12737,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -12806,7 +12815,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13140,7 +13149,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13630,10 +13639,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ62">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13836,7 +13845,7 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ63">
         <v>1.79</v>
@@ -14045,7 +14054,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14248,10 +14257,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR65">
         <v>1.26</v>
@@ -14376,7 +14385,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14457,7 +14466,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR66">
         <v>1.22</v>
@@ -14582,7 +14591,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14660,7 +14669,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ67">
         <v>1.36</v>
@@ -14788,7 +14797,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14869,7 +14878,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR68">
         <v>1.18</v>
@@ -15072,10 +15081,10 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ69">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.74</v>
@@ -15484,7 +15493,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.47</v>
@@ -15690,7 +15699,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>0.93</v>
@@ -15818,7 +15827,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15899,7 +15908,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.16</v>
@@ -16024,7 +16033,7 @@
         <v>132</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16230,7 +16239,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16308,10 +16317,10 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ75">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16436,7 +16445,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16517,7 +16526,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ76">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16720,7 +16729,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ77">
         <v>1.36</v>
@@ -16848,7 +16857,7 @@
         <v>89</v>
       </c>
       <c r="P78" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q78">
         <v>3.6</v>
@@ -17054,7 +17063,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>4.75</v>
@@ -17132,10 +17141,10 @@
         <v>1.92</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR79">
         <v>1.36</v>
@@ -17341,7 +17350,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR80">
         <v>1.24</v>
@@ -17544,7 +17553,7 @@
         <v>0.54</v>
       </c>
       <c r="AP81">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ81">
         <v>0.67</v>
@@ -17672,7 +17681,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17753,7 +17762,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -17878,7 +17887,7 @@
         <v>89</v>
       </c>
       <c r="P83" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q83">
         <v>3.75</v>
@@ -17956,7 +17965,7 @@
         <v>1.69</v>
       </c>
       <c r="AP83">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ83">
         <v>1.79</v>
@@ -18290,7 +18299,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18447,6 +18456,624 @@
       </c>
       <c r="BP85">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7330024</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45410.77083333334</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s">
+        <v>79</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>140</v>
+      </c>
+      <c r="P86" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>2.1</v>
+      </c>
+      <c r="S86">
+        <v>2.75</v>
+      </c>
+      <c r="T86">
+        <v>1.37</v>
+      </c>
+      <c r="U86">
+        <v>3.02</v>
+      </c>
+      <c r="V86">
+        <v>2.86</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>7.32</v>
+      </c>
+      <c r="Y86">
+        <v>1.06</v>
+      </c>
+      <c r="Z86">
+        <v>3.65</v>
+      </c>
+      <c r="AA86">
+        <v>3.3</v>
+      </c>
+      <c r="AB86">
+        <v>1.83</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE86">
+        <v>1.26</v>
+      </c>
+      <c r="AF86">
+        <v>3.34</v>
+      </c>
+      <c r="AG86">
+        <v>1.9</v>
+      </c>
+      <c r="AH86">
+        <v>1.8</v>
+      </c>
+      <c r="AI86">
+        <v>1.83</v>
+      </c>
+      <c r="AJ86">
+        <v>1.83</v>
+      </c>
+      <c r="AK86">
+        <v>1.84</v>
+      </c>
+      <c r="AL86">
+        <v>1.26</v>
+      </c>
+      <c r="AM86">
+        <v>1.22</v>
+      </c>
+      <c r="AN86">
+        <v>1.38</v>
+      </c>
+      <c r="AO86">
+        <v>2.38</v>
+      </c>
+      <c r="AP86">
+        <v>1.5</v>
+      </c>
+      <c r="AQ86">
+        <v>2.21</v>
+      </c>
+      <c r="AR86">
+        <v>1.22</v>
+      </c>
+      <c r="AS86">
+        <v>1.51</v>
+      </c>
+      <c r="AT86">
+        <v>2.73</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>2</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
+        <v>5</v>
+      </c>
+      <c r="AZ86">
+        <v>3</v>
+      </c>
+      <c r="BA86">
+        <v>1</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>4</v>
+      </c>
+      <c r="BD86">
+        <v>2.37</v>
+      </c>
+      <c r="BE86">
+        <v>7.41</v>
+      </c>
+      <c r="BF86">
+        <v>1.91</v>
+      </c>
+      <c r="BG86">
+        <v>1.36</v>
+      </c>
+      <c r="BH86">
+        <v>2.9</v>
+      </c>
+      <c r="BI86">
+        <v>1.48</v>
+      </c>
+      <c r="BJ86">
+        <v>2.47</v>
+      </c>
+      <c r="BK86">
+        <v>2</v>
+      </c>
+      <c r="BL86">
+        <v>1.8</v>
+      </c>
+      <c r="BM86">
+        <v>2.47</v>
+      </c>
+      <c r="BN86">
+        <v>1.48</v>
+      </c>
+      <c r="BO86">
+        <v>3.3</v>
+      </c>
+      <c r="BP86">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7330021</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45410.77083333334</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>141</v>
+      </c>
+      <c r="P87" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <v>1.45</v>
+      </c>
+      <c r="U87">
+        <v>2.69</v>
+      </c>
+      <c r="V87">
+        <v>3.28</v>
+      </c>
+      <c r="W87">
+        <v>1.32</v>
+      </c>
+      <c r="X87">
+        <v>8.4</v>
+      </c>
+      <c r="Y87">
+        <v>1.05</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+      <c r="AA87">
+        <v>3</v>
+      </c>
+      <c r="AB87">
+        <v>3.5</v>
+      </c>
+      <c r="AC87">
+        <v>1.05</v>
+      </c>
+      <c r="AD87">
+        <v>7.3</v>
+      </c>
+      <c r="AE87">
+        <v>1.36</v>
+      </c>
+      <c r="AF87">
+        <v>2.79</v>
+      </c>
+      <c r="AG87">
+        <v>2.15</v>
+      </c>
+      <c r="AH87">
+        <v>1.61</v>
+      </c>
+      <c r="AI87">
+        <v>1.91</v>
+      </c>
+      <c r="AJ87">
+        <v>1.8</v>
+      </c>
+      <c r="AK87">
+        <v>1.24</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.7</v>
+      </c>
+      <c r="AN87">
+        <v>1.29</v>
+      </c>
+      <c r="AO87">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP87">
+        <v>1.4</v>
+      </c>
+      <c r="AQ87">
+        <v>0.64</v>
+      </c>
+      <c r="AR87">
+        <v>1.51</v>
+      </c>
+      <c r="AS87">
+        <v>1.21</v>
+      </c>
+      <c r="AT87">
+        <v>2.72</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>5</v>
+      </c>
+      <c r="AZ87">
+        <v>2</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>7</v>
+      </c>
+      <c r="BD87">
+        <v>1.68</v>
+      </c>
+      <c r="BE87">
+        <v>7.8</v>
+      </c>
+      <c r="BF87">
+        <v>2.8</v>
+      </c>
+      <c r="BG87">
+        <v>1.25</v>
+      </c>
+      <c r="BH87">
+        <v>3.6</v>
+      </c>
+      <c r="BI87">
+        <v>1.46</v>
+      </c>
+      <c r="BJ87">
+        <v>2.52</v>
+      </c>
+      <c r="BK87">
+        <v>2.38</v>
+      </c>
+      <c r="BL87">
+        <v>1.85</v>
+      </c>
+      <c r="BM87">
+        <v>2.37</v>
+      </c>
+      <c r="BN87">
+        <v>1.51</v>
+      </c>
+      <c r="BO87">
+        <v>3.2</v>
+      </c>
+      <c r="BP87">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7330019</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45410.875</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>142</v>
+      </c>
+      <c r="P88" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q88">
+        <v>1.83</v>
+      </c>
+      <c r="R88">
+        <v>2.4</v>
+      </c>
+      <c r="S88">
+        <v>8</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>2.99</v>
+      </c>
+      <c r="V88">
+        <v>2.7</v>
+      </c>
+      <c r="W88">
+        <v>1.43</v>
+      </c>
+      <c r="X88">
+        <v>6.6</v>
+      </c>
+      <c r="Y88">
+        <v>1.09</v>
+      </c>
+      <c r="Z88">
+        <v>1.36</v>
+      </c>
+      <c r="AA88">
+        <v>5</v>
+      </c>
+      <c r="AB88">
+        <v>8</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>9</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.75</v>
+      </c>
+      <c r="AG88">
+        <v>1.8</v>
+      </c>
+      <c r="AH88">
+        <v>2</v>
+      </c>
+      <c r="AI88">
+        <v>2.2</v>
+      </c>
+      <c r="AJ88">
+        <v>1.62</v>
+      </c>
+      <c r="AK88">
+        <v>1.05</v>
+      </c>
+      <c r="AL88">
+        <v>1.18</v>
+      </c>
+      <c r="AM88">
+        <v>3</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>2.07</v>
+      </c>
+      <c r="AQ88">
+        <v>0.93</v>
+      </c>
+      <c r="AR88">
+        <v>1.9</v>
+      </c>
+      <c r="AS88">
+        <v>1.22</v>
+      </c>
+      <c r="AT88">
+        <v>3.12</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>8</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>13</v>
+      </c>
+      <c r="AZ88">
+        <v>6</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>7</v>
+      </c>
+      <c r="BD88">
+        <v>1.31</v>
+      </c>
+      <c r="BE88">
+        <v>11</v>
+      </c>
+      <c r="BF88">
+        <v>4.22</v>
+      </c>
+      <c r="BG88">
+        <v>1.22</v>
+      </c>
+      <c r="BH88">
+        <v>3.8</v>
+      </c>
+      <c r="BI88">
+        <v>1.36</v>
+      </c>
+      <c r="BJ88">
+        <v>2.9</v>
+      </c>
+      <c r="BK88">
+        <v>2</v>
+      </c>
+      <c r="BL88">
+        <v>2.13</v>
+      </c>
+      <c r="BM88">
+        <v>2.1</v>
+      </c>
+      <c r="BN88">
+        <v>1.65</v>
+      </c>
+      <c r="BO88">
+        <v>2.75</v>
+      </c>
+      <c r="BP88">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
